--- a/Unique-BaseTickers-TSETMC.xlsx
+++ b/Unique-BaseTickers-TSETMC.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A850"/>
+  <dimension ref="A1:A871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -735,5675 +735,5822 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>اهرم</t>
+          <t>انرژی1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>اوان</t>
+          <t>انرژی3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>اوج</t>
+          <t>اهرم</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>اوصتا</t>
+          <t>اوان</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>اپال</t>
+          <t>اوج</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>اپرداز</t>
+          <t>اوصتا</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>اکالا</t>
+          <t>اپال</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>بالاس</t>
+          <t>اپرداز</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>بالبر</t>
+          <t>اکالا</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>بایکا</t>
+          <t>بالاس</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>بترانس</t>
+          <t>بالبر</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>بتک</t>
+          <t>بایکا</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>بجهرم</t>
+          <t>بترانس</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>بخاور</t>
+          <t>بتک</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>بدکو</t>
+          <t>بجهرم</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>بذر</t>
+          <t>بخاور</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>برکت</t>
+          <t>بدکو</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>بزاگرس</t>
+          <t>بذر</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>بساما</t>
+          <t>برکت</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>بسویچ</t>
+          <t>بزاگرس</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>بشهاب</t>
+          <t>بساما</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>بفجر</t>
+          <t>بسویچ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>بموتو</t>
+          <t>بشهاب</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>بمپنا</t>
+          <t>بفجر</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>بمیلا</t>
+          <t>بموتو</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>بنو</t>
+          <t>بمپنا</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>بنیرو</t>
+          <t>بمیلا</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>بهسازان صنایع</t>
+          <t>بنو</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>بهپاک</t>
+          <t>بنیرو</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>بهیر</t>
+          <t>بهسازان صنایع</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>بورس</t>
+          <t>بهپاک</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>بورس1</t>
+          <t>بهیر</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>بورس2</t>
+          <t>بورس</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>بورس3</t>
+          <t>بورس1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>بوعلی</t>
+          <t>بورس2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>بپاس</t>
+          <t>بورس3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>بپیوند</t>
+          <t>بوعلی</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>بکاب</t>
+          <t>بپاس</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>بکام</t>
+          <t>بپیوند</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>بکهنوج</t>
+          <t>بکاب</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>بگیلان</t>
+          <t>بکام</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>تابا</t>
+          <t>بکهنوج</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>تاراز</t>
+          <t>بگیلان</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>تاصیکو</t>
+          <t>تابا</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>تامین سپهر</t>
+          <t>تاتمس</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>تاپکیش</t>
+          <t>تاراز</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>تاپیکو</t>
+          <t>تاصیکو</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>تایرا</t>
+          <t>تامین سپهر</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>تبرک</t>
+          <t>تاپکیش</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>تجلی</t>
+          <t>تاپیکو</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>تشتاد</t>
+          <t>تایرا</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>تصمیم</t>
+          <t>تبرک</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>تفیرو</t>
+          <t>تجلی</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>تلیسه</t>
+          <t>تشتاد</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>تماوند</t>
+          <t>تصمیم</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>تمحرکه</t>
+          <t>تفارس</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>تمدن</t>
+          <t>تفیرو</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>تملت</t>
+          <t>تلیسه</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>تنوین</t>
+          <t>تماوند</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>توریل</t>
+          <t>تمحرکه</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>توسعه</t>
+          <t>تمدن</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>توسعه نیشکر</t>
+          <t>تملت</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>توسعه گردشگری</t>
+          <t>تنوین</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>توسن</t>
+          <t>توریل</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>تولیددارو</t>
+          <t>توسعه</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>تپمپی</t>
+          <t>توسعه نیشکر</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>تپولا</t>
+          <t>توسعه گردشگری</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>تپکو</t>
+          <t>توسن</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>تکالا</t>
+          <t>تولیددارو</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>تکشا</t>
+          <t>تپمپی</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>تکمبا</t>
+          <t>تپولا</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>تکنار</t>
+          <t>تپکو</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>تکنو</t>
+          <t>تکالا</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>تیپیکو</t>
+          <t>تکشا</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ثاباد</t>
+          <t>تکمبا</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ثاخت</t>
+          <t>تکنار</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ثاصفا</t>
+          <t>تکنو</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ثالوند</t>
+          <t>تیپیکو</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ثامان</t>
+          <t>ثاباد</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ثامید</t>
+          <t>ثاخت</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ثاژن</t>
+          <t>ثاصفا</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ثبات</t>
+          <t>ثالوند</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ثباغ</t>
+          <t>ثامان</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ثبهساز</t>
+          <t>ثامید</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ثتران</t>
+          <t>ثاژن</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ثتوسا</t>
+          <t>ثبات</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ثجنوب</t>
+          <t>ثباغ</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ثجوان</t>
+          <t>ثبهساز</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ثروتم</t>
+          <t>ثتران</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ثرود</t>
+          <t>ثتوسا</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ثزاگرس</t>
+          <t>ثجنوب</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ثشاهد</t>
+          <t>ثجوان</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ثشرق</t>
+          <t>ثروتم</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ثعتما</t>
+          <t>ثرود</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ثعمرا</t>
+          <t>ثزاگرس</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ثغرب</t>
+          <t>ثشاهد</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ثفارس</t>
+          <t>ثشرق</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ثقزوی</t>
+          <t>ثعتما</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ثمسکن</t>
+          <t>ثعمرا</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ثمین</t>
+          <t>ثغرب</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ثنام</t>
+          <t>ثفارس</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ثنظام</t>
+          <t>ثقزوی</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ثنور</t>
+          <t>ثمسکن</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ثنوسا</t>
+          <t>ثمین</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ثهام</t>
+          <t>ثنام</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ثپردیس</t>
+          <t>ثنظام</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>جم</t>
+          <t>ثنور</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>جم پیلن</t>
+          <t>ثنوسا</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>جهرم</t>
+          <t>ثهام</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>جوین</t>
+          <t>ثپردیس</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>حآسا</t>
+          <t>جم</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>حآفرین</t>
+          <t>جم پیلن</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>حاریا</t>
+          <t>جهرم</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>حبندر</t>
+          <t>جوین</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>حتاید</t>
+          <t>حآسا</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>حتوکا</t>
+          <t>حآفرین</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>حخزر</t>
+          <t>حاریا</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>حرهشا</t>
+          <t>حبندر</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>حریل</t>
+          <t>حتاید</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>حسیر</t>
+          <t>حتوکا</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>حسینا</t>
+          <t>حخزر</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>حشکوه</t>
+          <t>حرهشا</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>حفارس</t>
+          <t>حریل</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>حفاری</t>
+          <t>حسیر</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>حپارسا</t>
+          <t>حسینا</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>حپترو</t>
+          <t>حشکوه</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>حکشتی</t>
+          <t>حفارس</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>حکمت</t>
+          <t>حفاری</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>حگردش</t>
+          <t>حپارسا</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>خاتم</t>
+          <t>حپترو</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>خاذین</t>
+          <t>حکشتی</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>خاهن</t>
+          <t>حکمت</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>خاور</t>
+          <t>حگردش</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>خاورمیانه</t>
+          <t>حگهر</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>خبازرس</t>
+          <t>خاتم</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>خبنیان</t>
+          <t>خاذین</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>خبهمن</t>
+          <t>خاهن</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ختراک</t>
+          <t>خاور</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ختور</t>
+          <t>خاورمیانه</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ختوقا</t>
+          <t>خبازرس</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>خدیزل</t>
+          <t>خبنیان</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>خراسان</t>
+          <t>خبهمن</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>خریخت</t>
+          <t>ختراک</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>خرینگ</t>
+          <t>ختور</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>خزامیا</t>
+          <t>ختوقا</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>خزر</t>
+          <t>خدیزل</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>خساپا</t>
+          <t>خراسان</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>خشرق</t>
+          <t>خریخت</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>خصدرا</t>
+          <t>خرینگ</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>خعمرا</t>
+          <t>خزامیا</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>خفناور</t>
+          <t>خزر</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>خفنر</t>
+          <t>خساپا</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>خفولا</t>
+          <t>خشرق</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>خلنت</t>
+          <t>خصدرا</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>خلیبل</t>
+          <t>خعمرا</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>خمحرکه</t>
+          <t>خفناور</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>خمحور</t>
+          <t>خفنر</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>خمهر</t>
+          <t>خفولا</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>خموتور</t>
+          <t>خلنت</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>خنصیر</t>
+          <t>خلیبل</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>خودرو</t>
+          <t>خمحرکه</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>خودکفا</t>
+          <t>خمحور</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>خوساز</t>
+          <t>خمهر</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>خپارس</t>
+          <t>خموتور</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>خپویش</t>
+          <t>خنصیر</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>خچرخش</t>
+          <t>خودرو</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>خکار</t>
+          <t>خودکفا</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>خکاوه</t>
+          <t>خوساز</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>خکرمان</t>
+          <t>خپارس</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>خکمک</t>
+          <t>خپویش</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>خگستر</t>
+          <t>خچرخش</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>دابور</t>
+          <t>خکار</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>دارا</t>
+          <t>خکاوه</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>دارا یکم</t>
+          <t>خکرمان</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>داراب</t>
+          <t>خکمک</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>دارو</t>
+          <t>خگستر</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>داریوش</t>
+          <t>دابور</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>داریک</t>
+          <t>دارا</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>داسوه</t>
+          <t>دارا یکم</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>دالبر</t>
+          <t>داراب</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>دامین</t>
+          <t>دارو</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>دانا</t>
+          <t>داریوش</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>داوه</t>
+          <t>داریک</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>دبالک</t>
+          <t>داسوه</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>دتماد</t>
+          <t>دالبر</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>دتهران</t>
+          <t>دامین</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>دتوزیع</t>
+          <t>دانا</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>دتولی</t>
+          <t>داوه</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>دتولید</t>
+          <t>دبالک</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>دجابر</t>
+          <t>دتماد</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>دحاوی</t>
+          <t>دتهران</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>دحکیم</t>
+          <t>دتوزیع</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ددام</t>
+          <t>دتولی</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>درازک</t>
+          <t>دتولید</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>درهآور</t>
+          <t>دجابر</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>دروز</t>
+          <t>دحاوی</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>دزهراوی</t>
+          <t>دحکیم</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>دسانکو</t>
+          <t>ددام</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>دسبحا</t>
+          <t>ددانا</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>دسبحان</t>
+          <t>درازک</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>دسینا</t>
+          <t>درهآور</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>دشیری</t>
+          <t>دروز</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>دشیمی</t>
+          <t>دزهراوی</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>دعبید</t>
+          <t>دسانکو</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>دفارا</t>
+          <t>دسبحا</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>دفرا</t>
+          <t>دسبحان</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>دقاضی</t>
+          <t>دسینا</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>دلر</t>
+          <t>دشیری</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>دلقما</t>
+          <t>دشیمی</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>دماوند</t>
+          <t>دعبید</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>دهدشت</t>
+          <t>دفارا</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>دپارس</t>
+          <t>دفرا</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>دکوثر</t>
+          <t>دقاضی</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>دکپسول</t>
+          <t>دلر</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>دکیمی</t>
+          <t>دلقما</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>دی</t>
+          <t>دماوند</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>دیران</t>
+          <t>دهدشت</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ذوب</t>
+          <t>دپارس</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>رافزا</t>
+          <t>دکوثر</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>رانفور</t>
+          <t>دکپسول</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>رتاپ</t>
+          <t>دکیمی</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>رتکو</t>
+          <t>دی</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>رشد</t>
+          <t>دیران</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>رماس</t>
+          <t>ذوب</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>رمپنا</t>
+          <t>رافزا</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>رنیک</t>
+          <t>رانفور</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>رویش</t>
+          <t>رتاپ</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>رکیش</t>
+          <t>رتکو</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ریشمک</t>
+          <t>رشد</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ریل پرداز</t>
+          <t>رماس</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>زاگرس</t>
+          <t>رمپنا</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>زبینا</t>
+          <t>رنیک</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>زدشت</t>
+          <t>رویش</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>زر</t>
+          <t>رکیش</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>زرین</t>
+          <t>ریشمک</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>زشریف</t>
+          <t>ریل پرداز</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>زشگزا</t>
+          <t>زاگرس</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>زفکا</t>
+          <t>زبینا</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>زقیام</t>
+          <t>زدشت</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>زماهان</t>
+          <t>زر</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>زملارد</t>
+          <t>زرین</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>زمگسا</t>
+          <t>زشریف</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>زنجان</t>
+          <t>زشگزا</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>زنگان</t>
+          <t>زفکا</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>زپارس</t>
+          <t>زقیام</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>زکشت</t>
+          <t>زماهان</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>زکوثر</t>
+          <t>زملارد</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>زگلدشت</t>
+          <t>زمگسا</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>زیتون</t>
+          <t>زنجان</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ساذری</t>
+          <t>زنگان</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ساراب</t>
+          <t>زپارس</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ساربیل</t>
+          <t>زکشت</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ساروج</t>
+          <t>زکوثر</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ساروم</t>
+          <t>زگلدشت</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>سامان</t>
+          <t>زیتون</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ساوه</t>
+          <t>سآبیک</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>سایرا</t>
+          <t>ساذری</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ساینا</t>
+          <t>ساراب</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>سباقر</t>
+          <t>ساربیل</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>سبجنو</t>
+          <t>ساروج</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>سبحان</t>
+          <t>ساروم</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>سبز</t>
+          <t>سامان</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>سبزوا</t>
+          <t>ساوه</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>سبهان</t>
+          <t>سایرا</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ستران</t>
+          <t>ساینا</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>سجام</t>
+          <t>سباقر</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>سحرخیز</t>
+          <t>سبجنو</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>سخاش</t>
+          <t>سبحان</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>سخزر</t>
+          <t>سبز</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>سخند</t>
+          <t>سبزوا</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>سخواف</t>
+          <t>سبهان</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>سخوز</t>
+          <t>ستران</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>سدبیر</t>
+          <t>سجام</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>سدشت</t>
+          <t>سحرخیز</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>سدور</t>
+          <t>سخاش</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>سرو</t>
+          <t>سخزر</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>سرود</t>
+          <t>سخند</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>سرچشمه</t>
+          <t>سخواف</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>سشرق</t>
+          <t>سخوز</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>سشمال</t>
+          <t>سدبیر</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>سصفها</t>
+          <t>سدشت</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>سصوفی</t>
+          <t>سدور</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>سغدیر</t>
+          <t>سرو</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>سغرب</t>
+          <t>سرود</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>سفار</t>
+          <t>سرچشمه</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>سفارس</t>
+          <t>سشرق</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>سفارود</t>
+          <t>سشمال</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>سفاسی</t>
+          <t>سصفها</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>سفاسیت</t>
+          <t>سصوفی</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>سفانو</t>
+          <t>سغدیر</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>سقاین</t>
+          <t>سغرب</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>سلار</t>
+          <t>سفار</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>سلام</t>
+          <t>سفارس</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>سمازن</t>
+          <t>سفارود</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>سمایه</t>
+          <t>سفاسی</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>سمتاز</t>
+          <t>سفاسیت</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>سمگا</t>
+          <t>سفانو</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>سنوین</t>
+          <t>سقاین</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>سنیر</t>
+          <t>سلار</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>سهرمز</t>
+          <t>سلام</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>سهگمت</t>
+          <t>سمازن</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>سپ</t>
+          <t>سمایه</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>سپاس</t>
+          <t>سمتاز</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>سپاها</t>
+          <t>سمگا</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>سپر</t>
+          <t>سنوین</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>سپرمی</t>
+          <t>سنیر</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>سپید</t>
+          <t>سهرمز</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>سپیدار</t>
+          <t>سهگمت</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>سپیدما</t>
+          <t>سهگمت2</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>سکارون</t>
+          <t>سپ</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>سکرد</t>
+          <t>سپاس</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>سکرما</t>
+          <t>سپاها</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>سیتا</t>
+          <t>سپر</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>سیدکو</t>
+          <t>سپرمی</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>سیستم</t>
+          <t>سپید</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>سیلام</t>
+          <t>سپیدار</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>سیمرغ</t>
+          <t>سپیدما</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>سیناد</t>
+          <t>سکارون</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>شاراک</t>
+          <t>سکرد</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>شاروم</t>
+          <t>سکرما</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>شاملا</t>
+          <t>سیتا</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>شاوان</t>
+          <t>سیدکو</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>شبریز</t>
+          <t>سیستم</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>شبصیر</t>
+          <t>سیلام</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>شبندر</t>
+          <t>سیمرغ</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>شبهرن</t>
+          <t>سیناد</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>شتران</t>
+          <t>شاراک</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>شتهران</t>
+          <t>شاروم</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>شتولی</t>
+          <t>شاملا</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>شتوکا</t>
+          <t>شاوان</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>شجم</t>
+          <t>شبریز</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>شخارک</t>
+          <t>شبصیر</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>شدوص</t>
+          <t>شبندر</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>شراز</t>
+          <t>شبهرن</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>شرانل</t>
+          <t>شتران</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>شرنگی</t>
+          <t>شتهران</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>شزنگ</t>
+          <t>شتولی</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>شساخت</t>
+          <t>شتوکا</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>شستا</t>
+          <t>شجم</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>شستان</t>
+          <t>شخارک</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>شسم</t>
+          <t>شدوص</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>شسپا</t>
+          <t>شراز</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>شسپهر</t>
+          <t>شرانل</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>شسینا</t>
+          <t>شرنگی</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>شصدف</t>
+          <t>شزنگ</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>شصفها</t>
+          <t>شساخت</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>شغدیر</t>
+          <t>شستا</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>شفا</t>
+          <t>شستان</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>شفارا</t>
+          <t>شسم</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>شفارس</t>
+          <t>شسپا</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>شفن</t>
+          <t>شسپهر</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>شلرد</t>
+          <t>شسینا</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>شلعاب</t>
+          <t>شصدف</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>شلیا</t>
+          <t>شصفها</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>شلیاف</t>
+          <t>شغدیر</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>شمواد</t>
+          <t>شفا</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>شنفت</t>
+          <t>شفارا</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>شوینده</t>
+          <t>شفارس</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>شپارس</t>
+          <t>شفن</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>شپاس</t>
+          <t>شلرد</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>شپاکسا</t>
+          <t>شلعاب</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>شپترو</t>
+          <t>شلیا</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>شپدیس</t>
+          <t>شلیاف</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>شپلی</t>
+          <t>شمواد</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>شپنا</t>
+          <t>شنفت</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>شکام</t>
+          <t>شوینده</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>شکبیر</t>
+          <t>شپارس</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>شکربن</t>
+          <t>شپاس</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>شکف</t>
+          <t>شپاکسا</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>شکلر</t>
+          <t>شپترو</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>شگل</t>
+          <t>شپدیس</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>شگویا</t>
+          <t>شپلی</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>شیراز</t>
+          <t>شپنا</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>شیران</t>
+          <t>شکام</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>صایند</t>
+          <t>شکبیر</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>صبا</t>
+          <t>شکربن</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>صغرب</t>
+          <t>شکف</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>صنم</t>
+          <t>شکلر</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>صنوین</t>
+          <t>شگل</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>طلا</t>
+          <t>شگویا</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>عسپاها</t>
+          <t>شیراز</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>عمرغ</t>
+          <t>شیران</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>عمیلگرد</t>
+          <t>صایند</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>عپلی جم</t>
+          <t>صبا</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>عکاوه</t>
+          <t>صغرب</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>عیار</t>
+          <t>صنم</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>غاذر</t>
+          <t>صنوین</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>غالبر</t>
+          <t>طلا</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>غبشهر</t>
+          <t>عسپاها</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>غبهار</t>
+          <t>عمرغ</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>غبهنوش</t>
+          <t>عمیلگرد</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>غبهپاک</t>
+          <t>عپلی جم</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>غدام</t>
+          <t>عکاوه</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>غدشت</t>
+          <t>عیار</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>غدیس</t>
+          <t>غاذر</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>غزر</t>
+          <t>غالبر</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>غسالم</t>
+          <t>غبشهر</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>غشاذر</t>
+          <t>غبهار</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>غشان</t>
+          <t>غبهنوش</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>غشصفا</t>
+          <t>غبهپاک</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>غشهد</t>
+          <t>غدام</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>غشهداب</t>
+          <t>غدشت</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>غشوکو</t>
+          <t>غدیس</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>غصینو</t>
+          <t>غزر</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>غفارس</t>
+          <t>غسالم</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>غمارگ</t>
+          <t>غشاذر</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>غمشهد</t>
+          <t>غشان</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>غمهرا</t>
+          <t>غشصفا</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>غمینو</t>
+          <t>غشهد</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>غناب</t>
+          <t>غشهداب</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>غنوش</t>
+          <t>غشوکو</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>غویتا</t>
+          <t>غصینو</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>غپآذر</t>
+          <t>غفارس</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>غپاک</t>
+          <t>غمارگ</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>غپونه</t>
+          <t>غمشهد</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>غپینو</t>
+          <t>غمهرا</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>غچین</t>
+          <t>غمینو</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>غکورش</t>
+          <t>غناب</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>غگرجی</t>
+          <t>غنوش</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>غگرگ</t>
+          <t>غنیلی</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>غگز</t>
+          <t>غویتا</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>غگل</t>
+          <t>غپآذر</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>غگلستا</t>
+          <t>غپاک</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>غگلپا</t>
+          <t>غپونه</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>غگیلا</t>
+          <t>غپینو</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>فاذر</t>
+          <t>غچین</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>فاراک</t>
+          <t>غکورش</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>فارس</t>
+          <t>غگرجی</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>فاسمین</t>
+          <t>غگرگ</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>فافزا</t>
+          <t>غگز</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>فافق</t>
+          <t>غگل</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>فالبر</t>
+          <t>غگلستا</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>فالوم</t>
+          <t>غگلپا</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>فاما</t>
+          <t>غگیلا</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>فاهواز</t>
+          <t>فاذر</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>فایرا</t>
+          <t>فاراک</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>فباهنر</t>
+          <t>فارس</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>فبستم</t>
+          <t>فارس2</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>فبیرا</t>
+          <t>فاسمین</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>فتوسا</t>
+          <t>فاسمین2</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>فجام</t>
+          <t>فافزا</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>فجر</t>
+          <t>فافق</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>فجهان</t>
+          <t>فالبر</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>فجوش</t>
+          <t>فالوم</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>فخاس</t>
+          <t>فاما</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>فخوز</t>
+          <t>فاهواز</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>فرآور</t>
+          <t>فایرا</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>فرابورس</t>
+          <t>فایرا2</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>فراز</t>
+          <t>فباهنر</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>فردا</t>
+          <t>فبستم</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>فروس</t>
+          <t>فبیرا</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>فروم</t>
+          <t>فتوسا</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>فروی</t>
+          <t>فجام</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>فزر</t>
+          <t>فجر</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>فزرین</t>
+          <t>فجهان</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>فسا</t>
+          <t>فجوش</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>فسازان</t>
+          <t>فخاس</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>فسبزوار</t>
+          <t>فخوز</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>فسدید</t>
+          <t>فرآور</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>فسرب</t>
+          <t>فرابورس</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>فسپا</t>
+          <t>فراز</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>فلات</t>
+          <t>فردا</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>فلامی</t>
+          <t>فروس</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>فلوله</t>
+          <t>فروسیل</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>فمراد</t>
+          <t>فروم</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>فملی</t>
+          <t>فروی</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>فن آوا</t>
+          <t>فزر</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>فنرژی</t>
+          <t>فزرین</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>فنفت</t>
+          <t>فسا</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>فنوال</t>
+          <t>فسازان</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>فنورد</t>
+          <t>فسبزوار</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>فولاد</t>
+          <t>فسدید</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>فولاژ</t>
+          <t>فسرب</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>فولای</t>
+          <t>فسپا</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>فوکا</t>
+          <t>فغدیر</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>فپنتا</t>
+          <t>فلات</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>فکاوه</t>
+          <t>فلامی</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>فکمند</t>
+          <t>فلوله</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>فگستر</t>
+          <t>فمراد</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>فیروزا</t>
+          <t>فملی</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>فیروزه</t>
+          <t>فن آوا</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>قاروم</t>
+          <t>فنرژی</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>قاسم</t>
+          <t>فنفت</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>قتربت</t>
+          <t>فنوال</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>قثابت</t>
+          <t>فنورد</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>قجام</t>
+          <t>فولاد</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>قرن</t>
+          <t>فولاژ</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>قزوین</t>
+          <t>فولای</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>قشرین</t>
+          <t>فوکا</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>قشهد</t>
+          <t>فپنتا</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>قشکر</t>
+          <t>فکاوه</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>قشیر</t>
+          <t>فکمند</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>قصفها</t>
+          <t>فگستر</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>قلرست</t>
+          <t>فیروزا</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>قمرو</t>
+          <t>فیروزه</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>قند یاسوج</t>
+          <t>قاروم</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>قنقش</t>
+          <t>قاسم</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>قنیشا</t>
+          <t>قتربت</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>قهکمت</t>
+          <t>قثابت</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>قپارس</t>
+          <t>قجام</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>قپیرا</t>
+          <t>قرن</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>قچار</t>
+          <t>قزوین</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>قیستو</t>
+          <t>قشرین</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>لابسا</t>
+          <t>قشهد</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>لازما</t>
+          <t>قشکر</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>لبوتان</t>
+          <t>قشیر</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>لخانه</t>
+          <t>قصفها</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>لخزر</t>
+          <t>قلرست</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>لرادا</t>
+          <t>قمرو</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>لسرما</t>
+          <t>قند یاسوج</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>لطیف</t>
+          <t>قنقش</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>لوتوس</t>
+          <t>قنیشا</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>لپارس</t>
+          <t>قهکمت</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>لپیام</t>
+          <t>قپارس</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>لکما</t>
+          <t>قپیرا</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ما</t>
+          <t>قچار</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>مادیرا</t>
+          <t>قیستو</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>مارون</t>
+          <t>لابسا</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>مانی</t>
+          <t>لازما</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>مبین</t>
+          <t>لبوتان</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>مثقال</t>
+          <t>لخانه</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>مدار</t>
+          <t>لخزر</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>مداران</t>
+          <t>لرادا</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>مدیر</t>
+          <t>لسرما</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>مدیریت</t>
+          <t>لطیف</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>مرقام</t>
+          <t>لوتوس</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>مروارید</t>
+          <t>لپارس</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>معیار</t>
+          <t>لپیام</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>مفاخر</t>
+          <t>لکما</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ملت</t>
+          <t>ما</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ممسنی</t>
+          <t>مادیرا</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>موج تامین</t>
+          <t>مارون</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>میدکو</t>
+          <t>مانی</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>میهن</t>
+          <t>مبین</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>نارون</t>
+          <t>مبین2</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>نبروج</t>
+          <t>مثقال</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>نبورس</t>
+          <t>مدار</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>نتوس</t>
+          <t>مداران</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>نسیم</t>
+          <t>مدیر</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>نشار</t>
+          <t>مدیریت</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>نشان</t>
+          <t>مرقام</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>نطرین</t>
+          <t>مروارید</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>نمرینو</t>
+          <t>معیار</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>نهال</t>
+          <t>مفاخر</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>نوری</t>
+          <t>ملت</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>نوین</t>
+          <t>ممسنی</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>نکالا</t>
+          <t>موج تامین</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>نگین</t>
+          <t>میدکو</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>نیرو</t>
+          <t>میهن</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>هامرز</t>
+          <t>نارون</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>های وب</t>
+          <t>نبروج</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>هجرت</t>
+          <t>نبورس</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>هرمز</t>
+          <t>نتوس</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>هم وزن</t>
+          <t>نسیم</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>همای</t>
+          <t>نشار</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>همراه</t>
+          <t>نشان</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>هوایی سامان</t>
+          <t>نطرین</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>وآتوس</t>
+          <t>نمرینو</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>وآذر</t>
+          <t>نهال</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>وآرمان</t>
+          <t>نوری</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>وآرین</t>
+          <t>نوین</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>وآفری</t>
+          <t>نکالا</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>وآوا</t>
+          <t>نگین</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>وآیند</t>
+          <t>نیرو</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>واتی</t>
+          <t>هامرز</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>واحصا</t>
+          <t>های وب</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>واحیا</t>
+          <t>هجرت</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>وارس</t>
+          <t>هرمز</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>واعتبار</t>
+          <t>هم وزن</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>والبر</t>
+          <t>همای</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>وامید</t>
+          <t>همراه</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>وامیر</t>
+          <t>هوایی سامان</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>وامین</t>
+          <t>وآتوس</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>وانصار</t>
+          <t>وآذر</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>وایرا</t>
+          <t>وآرمان</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>وایران</t>
+          <t>وآرین</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>وبازار</t>
+          <t>وآفر</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>وبانک</t>
+          <t>وآفری</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>وبرق</t>
+          <t>وآوا</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>وبشهر</t>
+          <t>وآیند</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>وبصادر</t>
+          <t>واتی</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>وبملت</t>
+          <t>واحصا</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>وبهمن</t>
+          <t>واحیا</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>وبوعلی</t>
+          <t>وارس</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>وبیمه</t>
+          <t>واعتبار</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>وتجارت</t>
+          <t>والبر</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>وتعاون</t>
+          <t>وامید</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>وتوس</t>
+          <t>وامیر</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>وتوسم</t>
+          <t>وامین</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>وتوشه</t>
+          <t>وانصار</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>وتوصا</t>
+          <t>وایرا</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>وتوکا</t>
+          <t>وایران</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>وثخوز</t>
+          <t>وبازار</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>وثنو</t>
+          <t>وبانک</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>وثوق</t>
+          <t>وبرق</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>وجامی</t>
+          <t>وبشهر</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>وحافظ</t>
+          <t>وبصادر</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>وحکمت</t>
+          <t>وبملت</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>وخارزم</t>
+          <t>وبملت2</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>وخاور</t>
+          <t>وبهمن</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>ودانا</t>
+          <t>وبوعلی</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>ودی</t>
+          <t>وبیمه</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>ورازی</t>
+          <t>وتجارت</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ورنا</t>
+          <t>وتعاون</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>وزمین</t>
+          <t>وتوس</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>وساخت</t>
+          <t>وتوسم</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>وساربیل</t>
+          <t>وتوشه</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>وساشرقی</t>
+          <t>وتوصا</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>وساغربی</t>
+          <t>وتوکا</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>وسالت</t>
+          <t>وثخوز</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>وساپا</t>
+          <t>وثنو</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>وسبحان</t>
+          <t>وثوق</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>وسبوشهر</t>
+          <t>وجامی</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>وسخراج</t>
+          <t>وحافظ</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>وسخراش</t>
+          <t>وحکمت</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>وسخوز</t>
+          <t>وخارزم</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>وسدید</t>
+          <t>وخاور</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>وسرضوی</t>
+          <t>ودانا</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>وسرمد</t>
+          <t>ودی</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>وسزنجان</t>
+          <t>ورازی</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>وسصفا</t>
+          <t>ورنا</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>وسفارس</t>
+          <t>وزمین</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>وسقم</t>
+          <t>وساخت</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>وسلرستا</t>
+          <t>وساربیل</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>وسمازن</t>
+          <t>وساشرقی</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>وسمرکز</t>
+          <t>وساغربی</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>وسنا</t>
+          <t>وسالت</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>وسهرمز</t>
+          <t>وساپا</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>وسهمدا</t>
+          <t>وسبحان</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>وسپه</t>
+          <t>وسبوشهر</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>وسپهر</t>
+          <t>وسخراج</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>وسکاب</t>
+          <t>وسخراش</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>وسکرد</t>
+          <t>وسخوز</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>وسکرشا</t>
+          <t>وسدید</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>وسکرمان</t>
+          <t>وسرضوی</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>وسکهبو</t>
+          <t>وسرمد</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>وسگلستا</t>
+          <t>وسزنجان</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>وسگیلا</t>
+          <t>وسصفا</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>وسیزد</t>
+          <t>وسفارس</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>وسیستا</t>
+          <t>وسقم</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>وسیلام</t>
+          <t>وسلرستا</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>وسین</t>
+          <t>وسمازن</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>وسینا</t>
+          <t>وسمرکز</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>وشمال</t>
+          <t>وسنا</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>وشهر</t>
+          <t>وسهرمز</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>وصنا</t>
+          <t>وسهمدا</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>وصندوق</t>
+          <t>وسپه</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>وصنعت</t>
+          <t>وسپه2</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>وغدیر</t>
+          <t>وسپهر</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>وفتخار</t>
+          <t>وسکاب</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>وقوام</t>
+          <t>وسکرد</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>ولانا</t>
+          <t>وسکرشا</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>ولبهمن</t>
+          <t>وسکرمان</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>ولتجار</t>
+          <t>وسکهبو</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>ولراز</t>
+          <t>وسگلستا</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>ولساپا</t>
+          <t>وسگیلا</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>ولشرق</t>
+          <t>وسیزد</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>ولصنم</t>
+          <t>وسیستا</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>ولغدر</t>
+          <t>وسیلام</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>ولقمان</t>
+          <t>وسین</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>ولملت</t>
+          <t>وسینا</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>ولپارس</t>
+          <t>وشمال</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>ولکار</t>
+          <t>وشهر</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>ولیز</t>
+          <t>وصنا</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>ومدیر</t>
+          <t>وصندوق</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>ومشان</t>
+          <t>وصنعت</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>ومعادن</t>
+          <t>وغدیر</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>ومعلم</t>
+          <t>وفتخار</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>وملت</t>
+          <t>وقوام</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>وملل</t>
+          <t>ولانا</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>وملی</t>
+          <t>ولبهمن</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>ومهان</t>
+          <t>ولتجار</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>ومهر</t>
+          <t>ولراز</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ونفت</t>
+          <t>ولساپا</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ونوین</t>
+          <t>ولشرق</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ونیرو</t>
+          <t>ولصنم</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ونیکی</t>
+          <t>ولغدر</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>وهامون</t>
+          <t>ولقمان</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>وهنر</t>
+          <t>ولملت</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>وهور</t>
+          <t>ولپارس</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>وپارس</t>
+          <t>ولکار</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>وپاسار</t>
+          <t>ولیز</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>وپترو</t>
+          <t>ومدیر</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>وپخش</t>
+          <t>ومشان</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>وپسا</t>
+          <t>ومعادن</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>وپست</t>
+          <t>ومعلم</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>وپویا</t>
+          <t>وملت</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>وکادو</t>
+          <t>وملل</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>وکار</t>
+          <t>وملی</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>وکبهمن</t>
+          <t>ومهان</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>وکغدیر</t>
+          <t>ومهر</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>وکوثر</t>
+          <t>ونفت</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>وگردش</t>
+          <t>ونوین</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>وگستر</t>
+          <t>ونیرو</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>ویسا</t>
+          <t>ونیکی</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>ویستا</t>
+          <t>وهامون</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>پادا</t>
+          <t>وهنر</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>پاداش</t>
+          <t>وهور</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>پارتا</t>
+          <t>وپارس</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>پارس</t>
+          <t>وپاسار</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>پارسان</t>
+          <t>وپترو</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>پارسیان</t>
+          <t>وپخش</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>پارند</t>
+          <t>وپسا</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>پاسا</t>
+          <t>وپست</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>پالایش</t>
+          <t>وپویا</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>پاکشو</t>
+          <t>وکادو</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>پتایر</t>
+          <t>وکار</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>پترول</t>
+          <t>وکبهمن</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>پخش</t>
+          <t>وکغدیر</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>پدرخش</t>
+          <t>وکوثر</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>پرداخت</t>
+          <t>وگردش</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>پردیس</t>
+          <t>وگستر</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>پسهند</t>
+          <t>ویسا</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>پشاهن</t>
+          <t>ویستا</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>پقدس</t>
+          <t>پادا</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>پلاست</t>
+          <t>پاداش</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>پلاسک</t>
+          <t>پارتا</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>پلوله</t>
+          <t>پارس</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>پکرمان</t>
+          <t>پارسان</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>پکویر</t>
+          <t>پارسیان</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>پکیان</t>
+          <t>پارند</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>پیزد</t>
+          <t>پاسا</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>چافست</t>
+          <t>پالایش</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>چبسپا</t>
+          <t>پاکشو</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>چخزر</t>
+          <t>پتایر</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>چدن</t>
+          <t>پترول</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>چفیبر</t>
+          <t>پترول2</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>چنوپا</t>
+          <t>پخش</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>چکارل</t>
+          <t>پدرخش</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>چکارن</t>
+          <t>پرداخت</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>چکاوه</t>
+          <t>پردیس</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>چکاپا</t>
+          <t>پسهند</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>کابگن</t>
+          <t>پشاهن</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>کاذر</t>
+          <t>پقدس</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>کارا</t>
+          <t>پلاست</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>کاردان</t>
+          <t>پلاسک</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>کاریس</t>
+          <t>پلوله</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>کارین</t>
+          <t>پکرمان</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>کازرو</t>
+          <t>پکویر</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>کاسپین</t>
+          <t>پکیان</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>کالا</t>
+          <t>پیزد</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>کالای پتروشیمی</t>
+          <t>چافست</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>کالبر</t>
+          <t>چبسپا</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>کاما</t>
+          <t>چخزر</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>کامیاب</t>
+          <t>چدن</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>کاوه</t>
+          <t>چفیبر</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>کایتا</t>
+          <t>چنوپا</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>کباده</t>
+          <t>چکارل</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>کبافق</t>
+          <t>چکارن</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>کبورس</t>
+          <t>چکاوه</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>کترام</t>
+          <t>چکاپا</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>کتوکا</t>
+          <t>کابگن</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>کحافظ</t>
+          <t>کاذر</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>کخاک</t>
+          <t>کارا</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>کدما</t>
+          <t>کاردان</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>کرازی</t>
+          <t>کاریس</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>کرماشا</t>
+          <t>کارین</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>کرمان</t>
+          <t>کازرو</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>کروی</t>
+          <t>کاسپین</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>کزغال</t>
+          <t>کالا</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>کساوه</t>
+          <t>کالای پتروشیمی</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>کساپا</t>
+          <t>کالبر</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>کسرا</t>
+          <t>کاما</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>کسرام</t>
+          <t>کامیاب</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>کسعدی</t>
+          <t>کاوه</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>کشرق</t>
+          <t>کایتا</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>کصدف</t>
+          <t>کایزد</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>کطبس</t>
+          <t>کباده</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>کفرآور</t>
+          <t>کبافق</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>کفرا</t>
+          <t>کبورس</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>کفپارس</t>
+          <t>کترام</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>کقزوی</t>
+          <t>کتوکا</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>کلر</t>
+          <t>کحافظ</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>کلوند</t>
+          <t>کخاک</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>کماسه</t>
+          <t>کدما</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>کمرجان</t>
+          <t>کرازی</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>کمند</t>
+          <t>کرماشا</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>کمنگنز</t>
+          <t>کرمان</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>کمینا</t>
+          <t>کروی</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>کنور</t>
+          <t>کزغال</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>کهرام</t>
+          <t>کساوه</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>کهربا</t>
+          <t>کساپا</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>کهمدا</t>
+          <t>کسرا</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>کوثر</t>
+          <t>کسرام</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>کورز</t>
+          <t>کسعدی</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>کویر</t>
+          <t>کشرق</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>کپارس</t>
+          <t>کصدف</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>کپرور</t>
+          <t>کطبس</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>کپشیر</t>
+          <t>کفرآور</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>کچاد</t>
+          <t>کفرا</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>کگاز</t>
+          <t>کفپارس</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>کگل</t>
+          <t>کقزوی</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>کگهر</t>
+          <t>کلر</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>کی بی سی</t>
+          <t>کلوند</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>کیان</t>
+          <t>کماسه</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>کیسون</t>
+          <t>کمرجان</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>کیمیا</t>
+          <t>کمند</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>کیمیاتک</t>
+          <t>کمنگنز</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>گدنا</t>
+          <t>کمینا</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>گشان</t>
+          <t>کنور</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>گنبد</t>
+          <t>کهرام</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>گنجین</t>
+          <t>کهربا</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>گنجینه</t>
+          <t>کهمدا</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>گنگین</t>
+          <t>کوثر</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>گوهر</t>
+          <t>کورز</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>گوهران</t>
+          <t>کویر</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>گپارس</t>
+          <t>کپارس</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>گکوثر</t>
+          <t>کپرور</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>گکیش</t>
+          <t>کپشیر</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>یارا</t>
+          <t>کچاد</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
+        <is>
+          <t>کگاز</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>کگل</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>کگهر</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>کی بی سی</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>کیا</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>کیان</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>کیسون</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>کیمیا</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>کیمیاتک</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>گدنا</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>گشان</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>گنبد</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>گنجین</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>گنجینه</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>گنگین</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>گوهر</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>گوهران</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>گپارس</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>گکوثر</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>گکیش</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>یارا</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
         <is>
           <t>یاقوت</t>
         </is>

--- a/Unique-BaseTickers-TSETMC.xlsx
+++ b/Unique-BaseTickers-TSETMC.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/d-Unique-BaseTickers-TSETMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F6FAE6-7E0A-FA48-886C-352047E8196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4A22B-D0BE-124F-AF11-A8117517B490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$871</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -73,6 +70,9 @@
     <t>آوا</t>
   </si>
   <si>
+    <t>آوند</t>
+  </si>
+  <si>
     <t>آپ</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t>ارفع</t>
   </si>
   <si>
+    <t>استارز</t>
+  </si>
+  <si>
     <t>اطلس</t>
   </si>
   <si>
@@ -349,6 +352,9 @@
     <t>تولیددارو</t>
   </si>
   <si>
+    <t>تپسی</t>
+  </si>
+  <si>
     <t>تپمپی</t>
   </si>
   <si>
@@ -364,6 +370,9 @@
     <t>تکشا</t>
   </si>
   <si>
+    <t>تکمان</t>
+  </si>
+  <si>
     <t>تکمبا</t>
   </si>
   <si>
@@ -418,6 +427,9 @@
     <t>ثجوان</t>
   </si>
   <si>
+    <t>ثروت</t>
+  </si>
+  <si>
     <t>ثروتم</t>
   </si>
   <si>
@@ -1444,6 +1456,9 @@
     <t>غگیلا</t>
   </si>
   <si>
+    <t>غیوان</t>
+  </si>
+  <si>
     <t>فاذر</t>
   </si>
   <si>
@@ -1576,6 +1591,9 @@
     <t>فلوله</t>
   </si>
   <si>
+    <t>فماک</t>
+  </si>
+  <si>
     <t>فمراد</t>
   </si>
   <si>
@@ -2221,6 +2239,9 @@
     <t>ونوین</t>
   </si>
   <si>
+    <t>ونچر</t>
+  </si>
+  <si>
     <t>ونیرو</t>
   </si>
   <si>
@@ -2365,6 +2386,9 @@
     <t>پیزد</t>
   </si>
   <si>
+    <t>پیشگام</t>
+  </si>
+  <si>
     <t>چافست</t>
   </si>
   <si>
@@ -2527,6 +2551,9 @@
     <t>کماسه</t>
   </si>
   <si>
+    <t>کمان</t>
+  </si>
+  <si>
     <t>کمرجان</t>
   </si>
   <si>
@@ -2599,6 +2626,9 @@
     <t>کیمیاتک</t>
   </si>
   <si>
+    <t>کیوان</t>
+  </si>
+  <si>
     <t>گدنا</t>
   </si>
   <si>
@@ -2636,39 +2666,6 @@
   </si>
   <si>
     <t>یاقوت</t>
-  </si>
-  <si>
-    <t>کمان</t>
-  </si>
-  <si>
-    <t>تکمان</t>
-  </si>
-  <si>
-    <t>ونچر</t>
-  </si>
-  <si>
-    <t>غیوان</t>
-  </si>
-  <si>
-    <t>کیوان</t>
-  </si>
-  <si>
-    <t>استارز</t>
-  </si>
-  <si>
-    <t>ثروت</t>
-  </si>
-  <si>
-    <t>پیشگام</t>
-  </si>
-  <si>
-    <t>تپسی</t>
-  </si>
-  <si>
-    <t>آوند</t>
-  </si>
-  <si>
-    <t>فماک</t>
   </si>
 </sst>
 </file>
@@ -3039,8 +3036,8 @@
   <dimension ref="A1:A882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A851" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A872" sqref="A872:A882"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A882" sqref="A882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7459,7 +7456,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A871" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Unique-BaseTickers-TSETMC.xlsx
+++ b/Unique-BaseTickers-TSETMC.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/d-Unique-BaseTickers-TSETMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4A22B-D0BE-124F-AF11-A8117517B490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75073987-4D0F-854C-BB47-FB3FAA757195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="885">
   <si>
     <t>BaseTicker</t>
   </si>
@@ -2666,6 +2669,15 @@
   </si>
   <si>
     <t>یاقوت</t>
+  </si>
+  <si>
+    <t>استارتر دیجیتال</t>
+  </si>
+  <si>
+    <t>باربند نرم خودرو</t>
+  </si>
+  <si>
+    <t>علامت تبرک</t>
   </si>
 </sst>
 </file>
@@ -3033,11 +3045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A882"/>
+  <dimension ref="A1:A885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A882" sqref="A882"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3052,4410 +3064,4430 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>883</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>761</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>763</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>764</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>765</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>766</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>768</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>770</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>769</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>771</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>772</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>773</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>774</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>775</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>777</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>778</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>779</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>780</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>784</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>785</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>786</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>781</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>782</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>783</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>787</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>788</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>789</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>790</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>791</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>792</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>793</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>798</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>795</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>796</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>797</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>794</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>462</v>
+        <v>408</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>475</v>
+        <v>884</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>512</v>
+        <v>458</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>518</v>
+        <v>464</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>519</v>
+        <v>478</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>520</v>
+        <v>479</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>527</v>
+        <v>486</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>528</v>
+        <v>487</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>533</v>
+        <v>492</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>534</v>
+        <v>493</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>538</v>
+        <v>496</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>539</v>
+        <v>497</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>542</v>
+        <v>500</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>544</v>
+        <v>502</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>545</v>
+        <v>504</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>549</v>
+        <v>507</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>550</v>
+        <v>508</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>551</v>
+        <v>509</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>553</v>
+        <v>511</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>555</v>
+        <v>513</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>557</v>
+        <v>515</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>560</v>
+        <v>517</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>565</v>
+        <v>520</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>567</v>
+        <v>522</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>569</v>
+        <v>524</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>571</v>
+        <v>526</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>572</v>
+        <v>527</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>576</v>
+        <v>534</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>577</v>
+        <v>531</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>578</v>
+        <v>532</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>579</v>
+        <v>533</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>594</v>
+        <v>549</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>603</v>
+        <v>562</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>604</v>
+        <v>799</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>605</v>
+        <v>800</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>606</v>
+        <v>801</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>607</v>
+        <v>802</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>608</v>
+        <v>803</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>609</v>
+        <v>804</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>610</v>
+        <v>805</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>611</v>
+        <v>806</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>612</v>
+        <v>807</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>613</v>
+        <v>808</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>614</v>
+        <v>809</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>615</v>
+        <v>810</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>616</v>
+        <v>811</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>617</v>
+        <v>812</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>618</v>
+        <v>813</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>619</v>
+        <v>814</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>620</v>
+        <v>815</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>621</v>
+        <v>816</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>622</v>
+        <v>817</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>623</v>
+        <v>855</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>624</v>
+        <v>856</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>625</v>
+        <v>857</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>626</v>
+        <v>818</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>627</v>
+        <v>819</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>628</v>
+        <v>858</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>629</v>
+        <v>820</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>630</v>
+        <v>821</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>631</v>
+        <v>822</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>632</v>
+        <v>823</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>633</v>
+        <v>824</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>634</v>
+        <v>825</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>635</v>
+        <v>826</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>636</v>
+        <v>827</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>637</v>
+        <v>829</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>638</v>
+        <v>828</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>639</v>
+        <v>830</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>640</v>
+        <v>831</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>641</v>
+        <v>832</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>642</v>
+        <v>833</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>643</v>
+        <v>834</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>644</v>
+        <v>835</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>645</v>
+        <v>838</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>646</v>
+        <v>837</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>647</v>
+        <v>836</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>648</v>
+        <v>839</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>649</v>
+        <v>859</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>650</v>
+        <v>860</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>651</v>
+        <v>861</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>652</v>
+        <v>840</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>653</v>
+        <v>841</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>654</v>
+        <v>842</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>655</v>
+        <v>843</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>656</v>
+        <v>844</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>657</v>
+        <v>845</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>658</v>
+        <v>846</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>659</v>
+        <v>847</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>660</v>
+        <v>848</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>661</v>
+        <v>849</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>662</v>
+        <v>850</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>663</v>
+        <v>851</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>664</v>
+        <v>852</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>665</v>
+        <v>853</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>666</v>
+        <v>854</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>667</v>
+        <v>862</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>668</v>
+        <v>863</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>669</v>
+        <v>864</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>670</v>
+        <v>865</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>671</v>
+        <v>866</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>672</v>
+        <v>867</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>673</v>
+        <v>868</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>674</v>
+        <v>877</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>675</v>
+        <v>869</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>676</v>
+        <v>870</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>677</v>
+        <v>878</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>678</v>
+        <v>879</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>679</v>
+        <v>871</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>680</v>
+        <v>872</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>681</v>
+        <v>873</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>682</v>
+        <v>874</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>683</v>
+        <v>875</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>684</v>
+        <v>876</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>685</v>
+        <v>563</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>686</v>
+        <v>564</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>687</v>
+        <v>565</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>688</v>
+        <v>572</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>689</v>
+        <v>573</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>690</v>
+        <v>566</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>691</v>
+        <v>567</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>692</v>
+        <v>568</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>693</v>
+        <v>569</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>694</v>
+        <v>570</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>695</v>
+        <v>574</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>696</v>
+        <v>571</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>697</v>
+        <v>575</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>698</v>
+        <v>576</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>699</v>
+        <v>577</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>700</v>
+        <v>578</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>701</v>
+        <v>579</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>702</v>
+        <v>580</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>703</v>
+        <v>581</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>704</v>
+        <v>582</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>705</v>
+        <v>583</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>706</v>
+        <v>584</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>707</v>
+        <v>585</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>708</v>
+        <v>586</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>709</v>
+        <v>587</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>710</v>
+        <v>588</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>711</v>
+        <v>589</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>712</v>
+        <v>590</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>713</v>
+        <v>591</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>714</v>
+        <v>592</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>715</v>
+        <v>593</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>716</v>
+        <v>594</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>717</v>
+        <v>595</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>718</v>
+        <v>596</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>719</v>
+        <v>597</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>720</v>
+        <v>598</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>721</v>
+        <v>599</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>722</v>
+        <v>600</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>723</v>
+        <v>601</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>724</v>
+        <v>602</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>725</v>
+        <v>607</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>726</v>
+        <v>608</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>727</v>
+        <v>603</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>728</v>
+        <v>604</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>729</v>
+        <v>605</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>730</v>
+        <v>606</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>731</v>
+        <v>609</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>732</v>
+        <v>610</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>733</v>
+        <v>611</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>734</v>
+        <v>612</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>735</v>
+        <v>613</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>736</v>
+        <v>614</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>737</v>
+        <v>615</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>738</v>
+        <v>616</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>739</v>
+        <v>617</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>740</v>
+        <v>626</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>741</v>
+        <v>627</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>742</v>
+        <v>628</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>743</v>
+        <v>629</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>744</v>
+        <v>630</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>745</v>
+        <v>631</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>746</v>
+        <v>632</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>747</v>
+        <v>633</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>748</v>
+        <v>634</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>749</v>
+        <v>635</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>750</v>
+        <v>636</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>751</v>
+        <v>637</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>752</v>
+        <v>618</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>753</v>
+        <v>619</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>754</v>
+        <v>620</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>755</v>
+        <v>621</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>756</v>
+        <v>622</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>757</v>
+        <v>623</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>758</v>
+        <v>624</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>759</v>
+        <v>625</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>760</v>
+        <v>638</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>761</v>
+        <v>639</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>762</v>
+        <v>640</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>763</v>
+        <v>641</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>764</v>
+        <v>642</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>766</v>
+        <v>644</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>767</v>
+        <v>645</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>768</v>
+        <v>646</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>769</v>
+        <v>647</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>777</v>
+        <v>648</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>778</v>
+        <v>649</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>779</v>
+        <v>650</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>780</v>
+        <v>651</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>781</v>
+        <v>652</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>782</v>
+        <v>653</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>783</v>
+        <v>654</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>784</v>
+        <v>655</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>785</v>
+        <v>656</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>786</v>
+        <v>657</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>787</v>
+        <v>658</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>788</v>
+        <v>659</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>789</v>
+        <v>660</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>790</v>
+        <v>661</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>791</v>
+        <v>662</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>792</v>
+        <v>663</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>793</v>
+        <v>664</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>794</v>
+        <v>665</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>795</v>
+        <v>666</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>796</v>
+        <v>667</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>797</v>
+        <v>673</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>798</v>
+        <v>668</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>799</v>
+        <v>669</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>800</v>
+        <v>670</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>801</v>
+        <v>671</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>802</v>
+        <v>672</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>803</v>
+        <v>674</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>804</v>
+        <v>675</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>805</v>
+        <v>692</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>806</v>
+        <v>693</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>807</v>
+        <v>694</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>808</v>
+        <v>676</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>809</v>
+        <v>677</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>810</v>
+        <v>678</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>811</v>
+        <v>679</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>812</v>
+        <v>680</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>813</v>
+        <v>681</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>814</v>
+        <v>682</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>815</v>
+        <v>683</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>816</v>
+        <v>684</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>817</v>
+        <v>685</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>818</v>
+        <v>695</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>819</v>
+        <v>696</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>820</v>
+        <v>697</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>821</v>
+        <v>698</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>822</v>
+        <v>699</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>823</v>
+        <v>700</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>824</v>
+        <v>701</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>825</v>
+        <v>686</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>826</v>
+        <v>687</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>827</v>
+        <v>688</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>828</v>
+        <v>689</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>829</v>
+        <v>690</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>830</v>
+        <v>691</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>831</v>
+        <v>702</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>832</v>
+        <v>703</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>833</v>
+        <v>704</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>834</v>
+        <v>705</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>835</v>
+        <v>706</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>836</v>
+        <v>707</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>837</v>
+        <v>708</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>838</v>
+        <v>709</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>839</v>
+        <v>710</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>840</v>
+        <v>711</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>841</v>
+        <v>712</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>842</v>
+        <v>713</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>843</v>
+        <v>714</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>844</v>
+        <v>752</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>845</v>
+        <v>753</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>846</v>
+        <v>754</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>847</v>
+        <v>755</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>848</v>
+        <v>756</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>849</v>
+        <v>757</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>850</v>
+        <v>758</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>851</v>
+        <v>715</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>852</v>
+        <v>716</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>853</v>
+        <v>725</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>854</v>
+        <v>717</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>855</v>
+        <v>718</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>856</v>
+        <v>719</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>857</v>
+        <v>720</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>858</v>
+        <v>721</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>859</v>
+        <v>722</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>860</v>
+        <v>723</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>861</v>
+        <v>726</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>862</v>
+        <v>724</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>863</v>
+        <v>727</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>864</v>
+        <v>728</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>865</v>
+        <v>729</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>866</v>
+        <v>730</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>867</v>
+        <v>731</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>868</v>
+        <v>732</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>869</v>
+        <v>733</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>870</v>
+        <v>734</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>871</v>
+        <v>735</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>872</v>
+        <v>736</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>873</v>
+        <v>739</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>874</v>
+        <v>737</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>875</v>
+        <v>738</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>876</v>
+        <v>740</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>877</v>
+        <v>741</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>878</v>
+        <v>742</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>879</v>
+        <v>743</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>880</v>
+        <v>744</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
         <v>881</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A885">
+      <sortCondition ref="A1:A885"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Unique-BaseTickers-TSETMC.xlsx
+++ b/Unique-BaseTickers-TSETMC.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A874"/>
+  <dimension ref="A1:A875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -728,5850 +728,5857 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>امید</t>
+          <t>الکترونیکی جوین</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>امین</t>
+          <t>امید</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>امین یکم</t>
+          <t>امین</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>انار</t>
+          <t>امین یکم</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>انرژی1</t>
+          <t>انار</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>انرژی3</t>
+          <t>انرژی1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>اهرم</t>
+          <t>انرژی3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>اوان</t>
+          <t>اهرم</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>اوج</t>
+          <t>اوان</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>اوصتا</t>
+          <t>اوج</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>اپال</t>
+          <t>اوصتا</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>اپرداز</t>
+          <t>اپال</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>اکالا</t>
+          <t>اپرداز</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>باربند نرم خودرو</t>
+          <t>اکالا</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>بالاس</t>
+          <t>باربند نرم خودرو</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>بالبر</t>
+          <t>بالاس</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>بایکا</t>
+          <t>بالبر</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>بترانس</t>
+          <t>بایکا</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>بتک</t>
+          <t>بترانس</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>بجهرم</t>
+          <t>بتک</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>بخاور</t>
+          <t>بجهرم</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>بدکو</t>
+          <t>بخاور</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>بذر</t>
+          <t>بدکو</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>برکت</t>
+          <t>بذر</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>بزاگرس</t>
+          <t>برکت</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>بساما</t>
+          <t>بزاگرس</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>بسویچ</t>
+          <t>بساما</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>بشهاب</t>
+          <t>بسویچ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>بفجر</t>
+          <t>بشهاب</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>بموتو</t>
+          <t>بفجر</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>بمپنا</t>
+          <t>بموتو</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>بمیلا</t>
+          <t>بمپنا</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>بنو</t>
+          <t>بمیلا</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>بنیرو</t>
+          <t>بنو</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>بهسازان صنایع</t>
+          <t>بنیرو</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>بهپاک</t>
+          <t>بهسازان صنایع</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>بهیر</t>
+          <t>بهپاک</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>بورس</t>
+          <t>بهیر</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>بوعلی</t>
+          <t>بورس</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>بپاس</t>
+          <t>بوعلی</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>بپیوند</t>
+          <t>بپاس</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>بکاب</t>
+          <t>بپیوند</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>بکام</t>
+          <t>بکاب</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>بکهنوج</t>
+          <t>بکام</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>بگیلان</t>
+          <t>بکهنوج</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>تابا</t>
+          <t>بگیلان</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>تاتمس</t>
+          <t>تابا</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>تاراز</t>
+          <t>تاتمس</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>تاصیکو</t>
+          <t>تاراز</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>تامین سپهر</t>
+          <t>تاصیکو</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>تاپکیش</t>
+          <t>تامین سپهر</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>تاپیکو</t>
+          <t>تاپکیش</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>تایرا</t>
+          <t>تاپیکو</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>تبرک</t>
+          <t>تایرا</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>تجلی</t>
+          <t>تبرک</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>تشتاد</t>
+          <t>تجلی</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>تصمیم</t>
+          <t>تشتاد</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>تفارس</t>
+          <t>تصمیم</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>تفیرو</t>
+          <t>تفارس</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>تلیسه</t>
+          <t>تفیرو</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>تماوند</t>
+          <t>تلیسه</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>تمحرکه</t>
+          <t>تماوند</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>تمدن</t>
+          <t>تمحرکه</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>تملت</t>
+          <t>تمدن</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>تنوین</t>
+          <t>تملت</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>توریل</t>
+          <t>تنوین</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>توسعه</t>
+          <t>توریل</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>توسعه نیشکر</t>
+          <t>توسعه</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>توسعه گردشگری</t>
+          <t>توسعه نیشکر</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>توسن</t>
+          <t>توسعه گردشگری</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>تولیددارو</t>
+          <t>توسن</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>تپسی</t>
+          <t>تولیددارو</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>تپمپی</t>
+          <t>تپسی</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>تپولا</t>
+          <t>تپمپی</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>تپکو</t>
+          <t>تپولا</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>تکالا</t>
+          <t>تپکو</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>تکشا</t>
+          <t>تکالا</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>تکمان</t>
+          <t>تکشا</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>تکمبا</t>
+          <t>تکمان</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>تکنار</t>
+          <t>تکمبا</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>تکنو</t>
+          <t>تکنار</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>تیپیکو</t>
+          <t>تکنو</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ثاباد</t>
+          <t>تیپیکو</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ثاخت</t>
+          <t>ثاباد</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ثاصفا</t>
+          <t>ثاخت</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ثالوند</t>
+          <t>ثاصفا</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ثامان</t>
+          <t>ثالوند</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ثامید</t>
+          <t>ثامان</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ثاژن</t>
+          <t>ثامید</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ثبات</t>
+          <t>ثاژن</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ثباغ</t>
+          <t>ثبات</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ثبهساز</t>
+          <t>ثباغ</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ثتران</t>
+          <t>ثبهساز</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ثتوسا</t>
+          <t>ثتران</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ثجنوب</t>
+          <t>ثتوسا</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ثجوان</t>
+          <t>ثجنوب</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ثروت</t>
+          <t>ثجوان</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ثروتم</t>
+          <t>ثروت</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ثرود</t>
+          <t>ثروتم</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ثزاگرس</t>
+          <t>ثرود</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ثشاهد</t>
+          <t>ثزاگرس</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ثشرق</t>
+          <t>ثشاهد</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ثعتما</t>
+          <t>ثشرق</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ثعمرا</t>
+          <t>ثعتما</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ثغرب</t>
+          <t>ثعمرا</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ثفارس</t>
+          <t>ثغرب</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ثقزوی</t>
+          <t>ثفارس</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ثمسکن</t>
+          <t>ثقزوی</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ثمین</t>
+          <t>ثمسکن</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ثنام</t>
+          <t>ثمین</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ثنظام</t>
+          <t>ثنام</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ثنور</t>
+          <t>ثنظام</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ثنوسا</t>
+          <t>ثنور</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ثهام</t>
+          <t>ثنوسا</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ثپردیس</t>
+          <t>ثهام</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>جم</t>
+          <t>ثپردیس</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>جم پیلن</t>
+          <t>جم</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>جهرم</t>
+          <t>جم پیلن</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>جوین</t>
+          <t>جهرم</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>حآسا</t>
+          <t>جوین</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>حآفرین</t>
+          <t>حآسا</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>حاریا</t>
+          <t>حآفرین</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>حبندر</t>
+          <t>حاریا</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>حتاید</t>
+          <t>حبندر</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>حتوکا</t>
+          <t>حتاید</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>حخزر</t>
+          <t>حتوکا</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>حرهشا</t>
+          <t>حخزر</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>حریل</t>
+          <t>حرهشا</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>حسیر</t>
+          <t>حریل</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>حسینا</t>
+          <t>حسیر</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>حشکوه</t>
+          <t>حسینا</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>حفارس</t>
+          <t>حشکوه</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>حفاری</t>
+          <t>حفارس</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>حپارسا</t>
+          <t>حفاری</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>حپترو</t>
+          <t>حپارسا</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>حکشتی</t>
+          <t>حپترو</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>حکمت</t>
+          <t>حکشتی</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>حگردش</t>
+          <t>حکمت</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>حگهر</t>
+          <t>حگردش</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>خاتم</t>
+          <t>حگهر</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>خاذین</t>
+          <t>خاتم</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>خاهن</t>
+          <t>خاذین</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>خاور</t>
+          <t>خاهن</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>خاورمیانه</t>
+          <t>خاور</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>خبازرس</t>
+          <t>خاورمیانه</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>خبنیان</t>
+          <t>خبازرس</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>خبهمن</t>
+          <t>خبنیان</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ختراک</t>
+          <t>خبهمن</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ختور</t>
+          <t>ختراک</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ختوقا</t>
+          <t>ختور</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>خدیزل</t>
+          <t>ختوقا</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>خراسان</t>
+          <t>خدیزل</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>خریخت</t>
+          <t>خراسان</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>خرینگ</t>
+          <t>خریخت</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>خزامیا</t>
+          <t>خرینگ</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>خزر</t>
+          <t>خزامیا</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>خساپا</t>
+          <t>خزر</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>خشرق</t>
+          <t>خساپا</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>خصدرا</t>
+          <t>خشرق</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>خعمرا</t>
+          <t>خصدرا</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>خفناور</t>
+          <t>خعمرا</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>خفنر</t>
+          <t>خفناور</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>خفولا</t>
+          <t>خفنر</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>خلنت</t>
+          <t>خفولا</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>خلیبل</t>
+          <t>خلنت</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>خمحرکه</t>
+          <t>خلیبل</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>خمحور</t>
+          <t>خمحرکه</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>خمهر</t>
+          <t>خمحور</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>خموتور</t>
+          <t>خمهر</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>خنصیر</t>
+          <t>خموتور</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>خودرو</t>
+          <t>خنصیر</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>خودکفا</t>
+          <t>خودرو</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>خوساز</t>
+          <t>خودکفا</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>خپارس</t>
+          <t>خوساز</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>خپویش</t>
+          <t>خپارس</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>خچرخش</t>
+          <t>خپویش</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>خکار</t>
+          <t>خچرخش</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>خکاوه</t>
+          <t>خکار</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>خکرمان</t>
+          <t>خکاوه</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>خکمک</t>
+          <t>خکرمان</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>خگستر</t>
+          <t>خکمک</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>دابور</t>
+          <t>خگستر</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>دارا</t>
+          <t>دابور</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>دارا یکم</t>
+          <t>دارا</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>داراب</t>
+          <t>دارا یکم</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>دارو</t>
+          <t>داراب</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>داریوش</t>
+          <t>دارو</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>داریک</t>
+          <t>داریوش</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>داسوه</t>
+          <t>داریک</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>دالبر</t>
+          <t>داسوه</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>دامین</t>
+          <t>دالبر</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>دانا</t>
+          <t>دامین</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>داوه</t>
+          <t>دانا</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>دبالک</t>
+          <t>داوه</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>دتماد</t>
+          <t>دبالک</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>دتهران</t>
+          <t>دتماد</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>دتوزیع</t>
+          <t>دتهران</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>دتولی</t>
+          <t>دتوزیع</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>دتولید</t>
+          <t>دتولی</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>دجابر</t>
+          <t>دتولید</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>دحاوی</t>
+          <t>دجابر</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>دحکیم</t>
+          <t>دحاوی</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ددام</t>
+          <t>دحکیم</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ددانا</t>
+          <t>ددام</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>درازک</t>
+          <t>ددانا</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>درهآور</t>
+          <t>درازک</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>دروز</t>
+          <t>درهآور</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>دزهراوی</t>
+          <t>دروز</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>دسانکو</t>
+          <t>دزهراوی</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>دسبحا</t>
+          <t>دسانکو</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>دسبحان</t>
+          <t>دسبحا</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>دسینا</t>
+          <t>دسبحان</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>دشیری</t>
+          <t>دسینا</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>دشیمی</t>
+          <t>دشیری</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>دعبید</t>
+          <t>دشیمی</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>دفارا</t>
+          <t>دعبید</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>دفرا</t>
+          <t>دفارا</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>دقاضی</t>
+          <t>دفرا</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>دلر</t>
+          <t>دقاضی</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>دلقما</t>
+          <t>دلر</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>دماوند</t>
+          <t>دلقما</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>دهدشت</t>
+          <t>دماوند</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>دپارس</t>
+          <t>دهدشت</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>دکوثر</t>
+          <t>دپارس</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>دکپسول</t>
+          <t>دکوثر</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>دکیمی</t>
+          <t>دکپسول</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>دی</t>
+          <t>دکیمی</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>دیران</t>
+          <t>دی</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ذوب</t>
+          <t>دیران</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>رافزا</t>
+          <t>ذوب</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>رانفور</t>
+          <t>رافزا</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>رتاپ</t>
+          <t>رانفور</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>رتکو</t>
+          <t>رتاپ</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>رشد</t>
+          <t>رتکو</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>رماس</t>
+          <t>رشد</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>رمپنا</t>
+          <t>رماس</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>رنیک</t>
+          <t>رمپنا</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>رویش</t>
+          <t>رنیک</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>رکیش</t>
+          <t>رویش</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ریشمک</t>
+          <t>رکیش</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ریل پرداز</t>
+          <t>ریشمک</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>زاگرس</t>
+          <t>ریل پرداز</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>زبینا</t>
+          <t>زاگرس</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>زدشت</t>
+          <t>زبینا</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>زر</t>
+          <t>زدشت</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>زرین</t>
+          <t>زر</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>زشریف</t>
+          <t>زرین</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>زشگزا</t>
+          <t>زشریف</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>زفکا</t>
+          <t>زشگزا</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>زقیام</t>
+          <t>زفکا</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>زماهان</t>
+          <t>زقیام</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>زملارد</t>
+          <t>زماهان</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>زمگسا</t>
+          <t>زملارد</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>زنجان</t>
+          <t>زمگسا</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>زنگان</t>
+          <t>زنجان</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>زپارس</t>
+          <t>زنگان</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>زکشت</t>
+          <t>زپارس</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>زکوثر</t>
+          <t>زکشت</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>زگلدشت</t>
+          <t>زکوثر</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>زیتون</t>
+          <t>زگلدشت</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>سآبیک</t>
+          <t>زیتون</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ساذری</t>
+          <t>سآبیک</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ساراب</t>
+          <t>ساذری</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ساربیل</t>
+          <t>ساراب</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ساروج</t>
+          <t>ساربیل</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ساروم</t>
+          <t>ساروج</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>سامان</t>
+          <t>ساروم</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ساوه</t>
+          <t>سامان</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>سایرا</t>
+          <t>ساوه</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ساینا</t>
+          <t>سایرا</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>سباقر</t>
+          <t>ساینا</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>سبجنو</t>
+          <t>سباقر</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>سبحان</t>
+          <t>سبجنو</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>سبز</t>
+          <t>سبحان</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>سبزوا</t>
+          <t>سبز</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>سبهان</t>
+          <t>سبزوا</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ستران</t>
+          <t>سبهان</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>سجام</t>
+          <t>ستران</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>سحرخیز</t>
+          <t>سجام</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>سخاش</t>
+          <t>سحرخیز</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>سخزر</t>
+          <t>سخاش</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>سخند</t>
+          <t>سخزر</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>سخواف</t>
+          <t>سخند</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>سخوز</t>
+          <t>سخواف</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>سدبیر</t>
+          <t>سخوز</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>سدشت</t>
+          <t>سدبیر</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>سدور</t>
+          <t>سدشت</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>سرو</t>
+          <t>سدور</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>سرود</t>
+          <t>سرو</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>سرچشمه</t>
+          <t>سرود</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>سشرق</t>
+          <t>سرچشمه</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>سشمال</t>
+          <t>سشرق</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>سصفها</t>
+          <t>سشمال</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>سصوفی</t>
+          <t>سصفها</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>سغدیر</t>
+          <t>سصوفی</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>سغرب</t>
+          <t>سغدیر</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>سفار</t>
+          <t>سغرب</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>سفارس</t>
+          <t>سفار</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>سفارود</t>
+          <t>سفارس</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>سفاسی</t>
+          <t>سفارود</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>سفاسیت</t>
+          <t>سفاسی</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>سفانو</t>
+          <t>سفاسیت</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>سقاین</t>
+          <t>سفانو</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>سلار</t>
+          <t>سقاین</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>سلام</t>
+          <t>سلار</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>سمازن</t>
+          <t>سلام</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>سمایه</t>
+          <t>سمازن</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>سمتاز</t>
+          <t>سمایه</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>سمگا</t>
+          <t>سمتاز</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>سنوین</t>
+          <t>سمگا</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>سنیر</t>
+          <t>سنوین</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>سهرمز</t>
+          <t>سنیر</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>سهگمت</t>
+          <t>سهرمز</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>سپ</t>
+          <t>سهگمت</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>سپاس</t>
+          <t>سپ</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>سپاها</t>
+          <t>سپاس</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>سپر</t>
+          <t>سپاها</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>سپرمی</t>
+          <t>سپر</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>سپید</t>
+          <t>سپرمی</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>سپیدار</t>
+          <t>سپید</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>سپیدما</t>
+          <t>سپیدار</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>سکارون</t>
+          <t>سپیدما</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>سکرد</t>
+          <t>سکارون</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>سکرما</t>
+          <t>سکرد</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>سیتا</t>
+          <t>سکرما</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>سیدکو</t>
+          <t>سیتا</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>سیستم</t>
+          <t>سیدکو</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>سیلام</t>
+          <t>سیستم</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>سیمرغ</t>
+          <t>سیلام</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>سیناد</t>
+          <t>سیمرغ</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>شاراک</t>
+          <t>سیناد</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>شاروم</t>
+          <t>شاراک</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>شاملا</t>
+          <t>شاروم</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>شاوان</t>
+          <t>شاملا</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>شبریز</t>
+          <t>شاوان</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>شبصیر</t>
+          <t>شبریز</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>شبندر</t>
+          <t>شبصیر</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>شبهرن</t>
+          <t>شبندر</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>شتران</t>
+          <t>شبهرن</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>شتهران</t>
+          <t>شتران</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>شتولی</t>
+          <t>شتهران</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>شتوکا</t>
+          <t>شتولی</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>شجم</t>
+          <t>شتوکا</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>شخارک</t>
+          <t>شجم</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>شدوص</t>
+          <t>شخارک</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>شراز</t>
+          <t>شدوص</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>شرانل</t>
+          <t>شراز</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>شرنگی</t>
+          <t>شرانل</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>شزنگ</t>
+          <t>شرنگی</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>شساخت</t>
+          <t>شزنگ</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>شستا</t>
+          <t>شساخت</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>شستان</t>
+          <t>شستا</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>شسم</t>
+          <t>شستان</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>شسپا</t>
+          <t>شسم</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>شسپهر</t>
+          <t>شسپا</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>شسینا</t>
+          <t>شسپهر</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>شصدف</t>
+          <t>شسینا</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>شصفها</t>
+          <t>شصدف</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>شغدیر</t>
+          <t>شصفها</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>شفا</t>
+          <t>شغدیر</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>شفارا</t>
+          <t>شفا</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>شفارس</t>
+          <t>شفارا</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>شفن</t>
+          <t>شفارس</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>شلرد</t>
+          <t>شفن</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>شلعاب</t>
+          <t>شلرد</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>شلیا</t>
+          <t>شلعاب</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>شلیاف</t>
+          <t>شلیا</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>شمواد</t>
+          <t>شلیاف</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>شنفت</t>
+          <t>شمواد</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>شوینده</t>
+          <t>شنفت</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>شپارس</t>
+          <t>شوینده</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>شپاس</t>
+          <t>شپارس</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>شپاکسا</t>
+          <t>شپاس</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>شپترو</t>
+          <t>شپاکسا</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>شپدیس</t>
+          <t>شپترو</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>شپلی</t>
+          <t>شپدیس</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>شپنا</t>
+          <t>شپلی</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>شکام</t>
+          <t>شپنا</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>شکبیر</t>
+          <t>شکام</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>شکربن</t>
+          <t>شکبیر</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>شکف</t>
+          <t>شکربن</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>شکلر</t>
+          <t>شکف</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>شگل</t>
+          <t>شکلر</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>شگویا</t>
+          <t>شگل</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>شیراز</t>
+          <t>شگویا</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>شیران</t>
+          <t>شیراز</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>صایند</t>
+          <t>شیران</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>صبا</t>
+          <t>صایند</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>صغرب</t>
+          <t>صبا</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>صنم</t>
+          <t>صغرب</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>صنوین</t>
+          <t>صنم</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>طلا</t>
+          <t>صنوین</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>عسپاها</t>
+          <t>طلا</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>علامت تبرک</t>
+          <t>عسپاها</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>عمرغ</t>
+          <t>علامت تبرک</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>عمیلگرد</t>
+          <t>عمرغ</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>عپلی جم</t>
+          <t>عمیلگرد</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>عکاوه</t>
+          <t>عپلی جم</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>عیار</t>
+          <t>عکاوه</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>غاذر</t>
+          <t>عیار</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>غالبر</t>
+          <t>غاذر</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>غبشهر</t>
+          <t>غالبر</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>غبهار</t>
+          <t>غبشهر</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>غبهنوش</t>
+          <t>غبهار</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>غبهپاک</t>
+          <t>غبهنوش</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>غدام</t>
+          <t>غبهپاک</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>غدشت</t>
+          <t>غدام</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>غدیس</t>
+          <t>غدشت</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>غزر</t>
+          <t>غدیس</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>غسالم</t>
+          <t>غزر</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>غشاذر</t>
+          <t>غسالم</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>غشان</t>
+          <t>غشاذر</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>غشصفا</t>
+          <t>غشان</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>غشهد</t>
+          <t>غشصفا</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>غشهداب</t>
+          <t>غشهد</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>غشوکو</t>
+          <t>غشهداب</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>غصینو</t>
+          <t>غشوکو</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>غفارس</t>
+          <t>غصینو</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>غمارگ</t>
+          <t>غفارس</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>غمشهد</t>
+          <t>غمارگ</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>غمهرا</t>
+          <t>غمشهد</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>غمینو</t>
+          <t>غمهرا</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>غناب</t>
+          <t>غمینو</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>غنوش</t>
+          <t>غناب</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>غنیلی</t>
+          <t>غنوش</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>غویتا</t>
+          <t>غنیلی</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>غپآذر</t>
+          <t>غویتا</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>غپاک</t>
+          <t>غپآذر</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>غپونه</t>
+          <t>غپاک</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>غپینو</t>
+          <t>غپونه</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>غچین</t>
+          <t>غپینو</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>غکورش</t>
+          <t>غچین</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>غگرجی</t>
+          <t>غکورش</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>غگرگ</t>
+          <t>غگرجی</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>غگز</t>
+          <t>غگرگ</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>غگل</t>
+          <t>غگز</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>غگلستا</t>
+          <t>غگل</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>غگلپا</t>
+          <t>غگلستا</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>غگیلا</t>
+          <t>غگلپا</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>غیوان</t>
+          <t>غگیلا</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>فاذر</t>
+          <t>غیوان</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>فاراک</t>
+          <t>فاذر</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>فارس</t>
+          <t>فاراک</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>فاسمین</t>
+          <t>فارس</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>فافزا</t>
+          <t>فاسمین</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>فافق</t>
+          <t>فافزا</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>فالبر</t>
+          <t>فافق</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>فالوم</t>
+          <t>فالبر</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>فاما</t>
+          <t>فالوم</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>فاهواز</t>
+          <t>فاما</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>فایرا</t>
+          <t>فاهواز</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>فباهنر</t>
+          <t>فایرا</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>فبستم</t>
+          <t>فباهنر</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>فبیرا</t>
+          <t>فبستم</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>فتوسا</t>
+          <t>فبیرا</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>فجام</t>
+          <t>فتوسا</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>فجر</t>
+          <t>فجام</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>فجهان</t>
+          <t>فجر</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>فجوش</t>
+          <t>فجهان</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>فخاس</t>
+          <t>فجوش</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>فخوز</t>
+          <t>فخاس</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>فرآور</t>
+          <t>فخوز</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>فرابورس</t>
+          <t>فرآور</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>فراز</t>
+          <t>فرابورس</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>فردا</t>
+          <t>فراز</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>فروس</t>
+          <t>فردا</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>فروسیل</t>
+          <t>فروس</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>فروم</t>
+          <t>فروسیل</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>فروی</t>
+          <t>فروم</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>فزر</t>
+          <t>فروی</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>فزرین</t>
+          <t>فزر</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>فسا</t>
+          <t>فزرین</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>فسازان</t>
+          <t>فسا</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>فسبزوار</t>
+          <t>فسازان</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>فسدید</t>
+          <t>فسبزوار</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>فسرب</t>
+          <t>فسدید</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>فسپا</t>
+          <t>فسرب</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>فغدیر</t>
+          <t>فسپا</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>فلات</t>
+          <t>فغدیر</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>فلامی</t>
+          <t>فلات</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>فلوله</t>
+          <t>فلامی</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>فماک</t>
+          <t>فلوله</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>فمراد</t>
+          <t>فماک</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>فملی</t>
+          <t>فمراد</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>فن آوا</t>
+          <t>فملی</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>فنرژی</t>
+          <t>فن آوا</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>فنفت</t>
+          <t>فنرژی</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>فنوال</t>
+          <t>فنفت</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>فنورد</t>
+          <t>فنوال</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>فولاد</t>
+          <t>فنورد</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>فولاژ</t>
+          <t>فولاد</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>فولای</t>
+          <t>فولاژ</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>فوکا</t>
+          <t>فولای</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>فپنتا</t>
+          <t>فوکا</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>فکاوه</t>
+          <t>فپنتا</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>فکمند</t>
+          <t>فکاوه</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>فگستر</t>
+          <t>فکمند</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>فیروزا</t>
+          <t>فگستر</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>فیروزه</t>
+          <t>فیروزا</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>قاروم</t>
+          <t>فیروزه</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>قاسم</t>
+          <t>قاروم</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>قتربت</t>
+          <t>قاسم</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>قثابت</t>
+          <t>قتربت</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>قجام</t>
+          <t>قثابت</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>قرن</t>
+          <t>قجام</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>قزوین</t>
+          <t>قرن</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>قشرین</t>
+          <t>قزوین</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>قشهد</t>
+          <t>قشرین</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>قشکر</t>
+          <t>قشهد</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>قشیر</t>
+          <t>قشکر</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>قصفها</t>
+          <t>قشیر</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>قلرست</t>
+          <t>قصفها</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>قمرو</t>
+          <t>قلرست</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>قند یاسوج</t>
+          <t>قمرو</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>قنقش</t>
+          <t>قند یاسوج</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>قنیشا</t>
+          <t>قنقش</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>قهکمت</t>
+          <t>قنیشا</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>قپارس</t>
+          <t>قهکمت</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>قپیرا</t>
+          <t>قپارس</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>قچار</t>
+          <t>قپیرا</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>قیستو</t>
+          <t>قچار</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>لابسا</t>
+          <t>قیستو</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>لازما</t>
+          <t>لابسا</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>لبوتان</t>
+          <t>لازما</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>لخانه</t>
+          <t>لبوتان</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>لخزر</t>
+          <t>لخانه</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>لرادا</t>
+          <t>لخزر</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>لسرما</t>
+          <t>لرادا</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>لطیف</t>
+          <t>لسرما</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>لوتوس</t>
+          <t>لطیف</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>لپارس</t>
+          <t>لوتوس</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>لپیام</t>
+          <t>لپارس</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>لکما</t>
+          <t>لپیام</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ما</t>
+          <t>لکما</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>مادیرا</t>
+          <t>ما</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>مارون</t>
+          <t>مادیرا</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>مانی</t>
+          <t>مارون</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>مبین</t>
+          <t>مانی</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>مثقال</t>
+          <t>مبین</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>مدار</t>
+          <t>مثقال</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>مداران</t>
+          <t>مدار</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>مدیر</t>
+          <t>مداران</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>مدیریت</t>
+          <t>مدیر</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>مرقام</t>
+          <t>مدیریت</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>مروارید</t>
+          <t>مرقام</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>معیار</t>
+          <t>مروارید</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>مفاخر</t>
+          <t>معیار</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ملت</t>
+          <t>مفاخر</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ممسنی</t>
+          <t>ملت</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>موج تامین</t>
+          <t>ممسنی</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>میدکو</t>
+          <t>موج تامین</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>میهن</t>
+          <t>میدکو</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>نارون</t>
+          <t>میهن</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>نبروج</t>
+          <t>نارون</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>نبورس</t>
+          <t>نبروج</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>نتوس</t>
+          <t>نبورس</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>نسیم</t>
+          <t>نتوس</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>نشار</t>
+          <t>نسیم</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>نشان</t>
+          <t>نشار</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>نطرین</t>
+          <t>نشان</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>نمرینو</t>
+          <t>نطرین</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>نهال</t>
+          <t>نمرینو</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>نوری</t>
+          <t>نهال</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>نوین</t>
+          <t>نوری</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>نکالا</t>
+          <t>نوین</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>نگین</t>
+          <t>نکالا</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>نیرو</t>
+          <t>نگین</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>هامرز</t>
+          <t>نیرو</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>های وب</t>
+          <t>هامرز</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>هجرت</t>
+          <t>های وب</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>هرمز</t>
+          <t>هجرت</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>هم وزن</t>
+          <t>هرمز</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>همای</t>
+          <t>هم وزن</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>همراه</t>
+          <t>همای</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>هوایی سامان</t>
+          <t>همراه</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>وآتوس</t>
+          <t>هوایی سامان</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>وآذر</t>
+          <t>وآتوس</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>وآرمان</t>
+          <t>وآذر</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>وآرین</t>
+          <t>وآرمان</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>وآفر</t>
+          <t>وآرین</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>وآفری</t>
+          <t>وآفر</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>وآوا</t>
+          <t>وآفری</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>وآیند</t>
+          <t>وآوا</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>واتی</t>
+          <t>وآیند</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>واحصا</t>
+          <t>واتی</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>واحیا</t>
+          <t>واحصا</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>وارس</t>
+          <t>واحیا</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>واعتبار</t>
+          <t>وارس</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>والبر</t>
+          <t>واعتبار</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>وامید</t>
+          <t>والبر</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>وامیر</t>
+          <t>وامید</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>وامین</t>
+          <t>وامیر</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>وانصار</t>
+          <t>وامین</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>وایرا</t>
+          <t>وانصار</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>وایران</t>
+          <t>وایرا</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>وبازار</t>
+          <t>وایران</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>وبانک</t>
+          <t>وبازار</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>وبرق</t>
+          <t>وبانک</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>وبشهر</t>
+          <t>وبرق</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>وبصادر</t>
+          <t>وبشهر</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>وبملت</t>
+          <t>وبصادر</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>وبهمن</t>
+          <t>وبملت</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>وبوعلی</t>
+          <t>وبهمن</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>وبیمه</t>
+          <t>وبوعلی</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>وتجارت</t>
+          <t>وبیمه</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>وتعاون</t>
+          <t>وتجارت</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>وتوس</t>
+          <t>وتعاون</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>وتوسم</t>
+          <t>وتوس</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>وتوشه</t>
+          <t>وتوسم</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>وتوصا</t>
+          <t>وتوشه</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>وتوکا</t>
+          <t>وتوصا</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>وثخوز</t>
+          <t>وتوکا</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>وثنو</t>
+          <t>وثخوز</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>وثوق</t>
+          <t>وثنو</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>وجامی</t>
+          <t>وثوق</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>وحافظ</t>
+          <t>وجامی</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>وحکمت</t>
+          <t>وحافظ</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>وخارزم</t>
+          <t>وحکمت</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>وخاور</t>
+          <t>وخارزم</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ودانا</t>
+          <t>وخاور</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>ودی</t>
+          <t>ودانا</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ورازی</t>
+          <t>ودی</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ورنا</t>
+          <t>ورازی</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>وزمین</t>
+          <t>ورنا</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>وساخت</t>
+          <t>وزمین</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>وساربیل</t>
+          <t>وساخت</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>وساشرقی</t>
+          <t>وساربیل</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>وساغربی</t>
+          <t>وساشرقی</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>وسالت</t>
+          <t>وساغربی</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>وساپا</t>
+          <t>وسالت</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>وسبحان</t>
+          <t>وساپا</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>وسبوشهر</t>
+          <t>وسبحان</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>وسخراج</t>
+          <t>وسبوشهر</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>وسخراش</t>
+          <t>وسخراج</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>وسخوز</t>
+          <t>وسخراش</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>وسدید</t>
+          <t>وسخوز</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>وسرضوی</t>
+          <t>وسدید</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>وسرمد</t>
+          <t>وسرضوی</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>وسزنجان</t>
+          <t>وسرمد</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>وسصفا</t>
+          <t>وسزنجان</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>وسفارس</t>
+          <t>وسصفا</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>وسقم</t>
+          <t>وسفارس</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>وسلرستا</t>
+          <t>وسقم</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>وسمازن</t>
+          <t>وسلرستا</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>وسمرکز</t>
+          <t>وسمازن</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>وسنا</t>
+          <t>وسمرکز</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>وسهرمز</t>
+          <t>وسنا</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>وسهمدا</t>
+          <t>وسهرمز</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>وسپه</t>
+          <t>وسهمدا</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>وسپهر</t>
+          <t>وسپه</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>وسکاب</t>
+          <t>وسپهر</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>وسکرد</t>
+          <t>وسکاب</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>وسکرشا</t>
+          <t>وسکرد</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>وسکرمان</t>
+          <t>وسکرشا</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>وسکهبو</t>
+          <t>وسکرمان</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>وسگلستا</t>
+          <t>وسکهبو</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>وسگیلا</t>
+          <t>وسگلستا</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>وسیزد</t>
+          <t>وسگیلا</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>وسیستا</t>
+          <t>وسیزد</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>وسیلام</t>
+          <t>وسیستا</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>وسین</t>
+          <t>وسیلام</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>وسینا</t>
+          <t>وسین</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>وشمال</t>
+          <t>وسینا</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>وشهر</t>
+          <t>وشمال</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>وصنا</t>
+          <t>وشهر</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>وصندوق</t>
+          <t>وصنا</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>وصنعت</t>
+          <t>وصندوق</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>وغدیر</t>
+          <t>وصنعت</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>وفتخار</t>
+          <t>وغدیر</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>وقوام</t>
+          <t>وفتخار</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>ولانا</t>
+          <t>وقوام</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>ولبهمن</t>
+          <t>ولانا</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>ولتجار</t>
+          <t>ولبهمن</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>ولراز</t>
+          <t>ولتجار</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ولساپا</t>
+          <t>ولراز</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ولشرق</t>
+          <t>ولساپا</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ولصنم</t>
+          <t>ولشرق</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ولغدر</t>
+          <t>ولصنم</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>ولقمان</t>
+          <t>ولغدر</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>ولملت</t>
+          <t>ولقمان</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ولپارس</t>
+          <t>ولملت</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>ولکار</t>
+          <t>ولپارس</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>ولیز</t>
+          <t>ولکار</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>ومدیر</t>
+          <t>ولیز</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>ومشان</t>
+          <t>ومدیر</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>ومعادن</t>
+          <t>ومشان</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ومعلم</t>
+          <t>ومعادن</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>وملت</t>
+          <t>ومعلم</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>وملل</t>
+          <t>وملت</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>وملی</t>
+          <t>وملل</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>ومهان</t>
+          <t>وملی</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>ومهر</t>
+          <t>ومهان</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>ونفت</t>
+          <t>ومهر</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>ونوین</t>
+          <t>ونفت</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>ونچر</t>
+          <t>ونوین</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>ونیرو</t>
+          <t>ونچر</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>ونیکی</t>
+          <t>ونیرو</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>وهامون</t>
+          <t>ونیکی</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>وهنر</t>
+          <t>وهامون</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>وهور</t>
+          <t>وهنر</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>وپارس</t>
+          <t>وهور</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>وپاسار</t>
+          <t>وپارس</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>وپترو</t>
+          <t>وپاسار</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>وپخش</t>
+          <t>وپترو</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>وپسا</t>
+          <t>وپخش</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>وپست</t>
+          <t>وپسا</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>وپویا</t>
+          <t>وپست</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>وکادو</t>
+          <t>وپویا</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>وکار</t>
+          <t>وکادو</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>وکبهمن</t>
+          <t>وکار</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>وکغدیر</t>
+          <t>وکبهمن</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>وکوثر</t>
+          <t>وکغدیر</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>وگردش</t>
+          <t>وکوثر</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>وگستر</t>
+          <t>وگردش</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>ویسا</t>
+          <t>وگستر</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>ویستا</t>
+          <t>ویسا</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>پادا</t>
+          <t>ویستا</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>پاداش</t>
+          <t>پادا</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>پارتا</t>
+          <t>پاداش</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>پارس</t>
+          <t>پارتا</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>پارسان</t>
+          <t>پارس</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>پارسیان</t>
+          <t>پارسان</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>پارند</t>
+          <t>پارسیان</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>پاسا</t>
+          <t>پارند</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>پالایش</t>
+          <t>پاسا</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>پاکشو</t>
+          <t>پالایش</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>پتایر</t>
+          <t>پاکشو</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>پترول</t>
+          <t>پتایر</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>پخش</t>
+          <t>پترول</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>پدرخش</t>
+          <t>پخش</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>پرداخت</t>
+          <t>پدرخش</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>پردیس</t>
+          <t>پرداخت</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>پسهند</t>
+          <t>پردیس</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>پشاهن</t>
+          <t>پسهند</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>پقدس</t>
+          <t>پشاهن</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>پلاست</t>
+          <t>پقدس</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>پلاسک</t>
+          <t>پلاست</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>پلوله</t>
+          <t>پلاسک</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>پکرمان</t>
+          <t>پلوله</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>پکویر</t>
+          <t>پکرمان</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>پکیان</t>
+          <t>پکویر</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>پیزد</t>
+          <t>پکیان</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>پیشگام</t>
+          <t>پیزد</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>چافست</t>
+          <t>پیشگام</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>چبسپا</t>
+          <t>چافست</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>چخزر</t>
+          <t>چبسپا</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>چدن</t>
+          <t>چخزر</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>چفیبر</t>
+          <t>چدن</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>چنوپا</t>
+          <t>چفیبر</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>چکارل</t>
+          <t>چنوپا</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>چکارن</t>
+          <t>چکارل</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>چکاوه</t>
+          <t>چکارن</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>چکاپا</t>
+          <t>چکاوه</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>کابگن</t>
+          <t>چکاپا</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>کاذر</t>
+          <t>کابگن</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>کارا</t>
+          <t>کاذر</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>کاردان</t>
+          <t>کارا</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>کاریس</t>
+          <t>کاردان</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>کارین</t>
+          <t>کاریس</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>کازرو</t>
+          <t>کارین</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>کاسپین</t>
+          <t>کازرو</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>کالا</t>
+          <t>کاسپین</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>کالای پتروشیمی</t>
+          <t>کالا</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>کالبر</t>
+          <t>کالای پتروشیمی</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>کاما</t>
+          <t>کالبر</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>کامیاب</t>
+          <t>کاما</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>کاوه</t>
+          <t>کامیاب</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>کایتا</t>
+          <t>کاوه</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>کایزد</t>
+          <t>کایتا</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>کباده</t>
+          <t>کایزد</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>کبافق</t>
+          <t>کباده</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>کبورس</t>
+          <t>کبافق</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>کترام</t>
+          <t>کبورس</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>کتوکا</t>
+          <t>کترام</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>کحافظ</t>
+          <t>کتوکا</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>کخاک</t>
+          <t>کحافظ</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>کدما</t>
+          <t>کخاک</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>کرازی</t>
+          <t>کدما</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>کرماشا</t>
+          <t>کرازی</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>کرمان</t>
+          <t>کرماشا</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>کروی</t>
+          <t>کرمان</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>کزغال</t>
+          <t>کروی</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>کساوه</t>
+          <t>کزغال</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>کساپا</t>
+          <t>کساوه</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>کسرا</t>
+          <t>کساپا</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>کسرام</t>
+          <t>کسرا</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>کسعدی</t>
+          <t>کسرام</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>کشرق</t>
+          <t>کسعدی</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>کصدف</t>
+          <t>کشرق</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>کطبس</t>
+          <t>کصدف</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>کفرآور</t>
+          <t>کطبس</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>کفرا</t>
+          <t>کفرآور</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>کفپارس</t>
+          <t>کفرا</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>کقزوی</t>
+          <t>کفپارس</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>کلر</t>
+          <t>کقزوی</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>کلوند</t>
+          <t>کلر</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>کماسه</t>
+          <t>کلوند</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>کمان</t>
+          <t>کماسه</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>کمرجان</t>
+          <t>کمان</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>کمند</t>
+          <t>کمرجان</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>کمنگنز</t>
+          <t>کمند</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>کمینا</t>
+          <t>کمنگنز</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>کنور</t>
+          <t>کمینا</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>کهرام</t>
+          <t>کنور</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>کهربا</t>
+          <t>کهرام</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>کهمدا</t>
+          <t>کهربا</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>کوثر</t>
+          <t>کهمدا</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>کورز</t>
+          <t>کوثر</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>کویر</t>
+          <t>کورز</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>کپارس</t>
+          <t>کویر</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>کپرور</t>
+          <t>کپارس</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>کپشیر</t>
+          <t>کپرور</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>کچاد</t>
+          <t>کپشیر</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>کگاز</t>
+          <t>کچاد</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>کگل</t>
+          <t>کگاز</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>کگهر</t>
+          <t>کگل</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>کی بی سی</t>
+          <t>کگهر</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>کیا</t>
+          <t>کی بی سی</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>کیان</t>
+          <t>کیا</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>کیسون</t>
+          <t>کیان</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>کیمیا</t>
+          <t>کیسون</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>کیمیاتک</t>
+          <t>کیمیا</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>کیوان</t>
+          <t>کیمیاتک</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>گدنا</t>
+          <t>کیوان</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>گشان</t>
+          <t>گدنا</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>گنبد</t>
+          <t>گشان</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>گنجین</t>
+          <t>گنبد</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>گنجینه</t>
+          <t>گنجین</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>گنگین</t>
+          <t>گنجینه</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>گوهر</t>
+          <t>گنگین</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>گوهران</t>
+          <t>گوهر</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>گپارس</t>
+          <t>گوهران</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>گکوثر</t>
+          <t>گپارس</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>گکیش</t>
+          <t>گکوثر</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>یارا</t>
+          <t>گکیش</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
+        <is>
+          <t>یارا</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
         <is>
           <t>یاقوت</t>
         </is>

--- a/Unique-BaseTickers-TSETMC.xlsx
+++ b/Unique-BaseTickers-TSETMC.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A875"/>
+  <dimension ref="A1:A876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -770,5815 +770,5822 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>انرژی3</t>
+          <t>انرژی2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>اهرم</t>
+          <t>انرژی3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>اوان</t>
+          <t>اهرم</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>اوج</t>
+          <t>اوان</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>اوصتا</t>
+          <t>اوج</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>اپال</t>
+          <t>اوصتا</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>اپرداز</t>
+          <t>اپال</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>اکالا</t>
+          <t>اپرداز</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>باربند نرم خودرو</t>
+          <t>اکالا</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>بالاس</t>
+          <t>باربند نرم خودرو</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>بالبر</t>
+          <t>بالاس</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>بایکا</t>
+          <t>بالبر</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>بترانس</t>
+          <t>بایکا</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>بتک</t>
+          <t>بترانس</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>بجهرم</t>
+          <t>بتک</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>بخاور</t>
+          <t>بجهرم</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>بدکو</t>
+          <t>بخاور</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>بذر</t>
+          <t>بدکو</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>برکت</t>
+          <t>بذر</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>بزاگرس</t>
+          <t>برکت</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>بساما</t>
+          <t>بزاگرس</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>بسویچ</t>
+          <t>بساما</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>بشهاب</t>
+          <t>بسویچ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>بفجر</t>
+          <t>بشهاب</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>بموتو</t>
+          <t>بفجر</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>بمپنا</t>
+          <t>بموتو</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>بمیلا</t>
+          <t>بمپنا</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>بنو</t>
+          <t>بمیلا</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>بنیرو</t>
+          <t>بنو</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>بهسازان صنایع</t>
+          <t>بنیرو</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>بهپاک</t>
+          <t>بهسازان صنایع</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>بهیر</t>
+          <t>بهپاک</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>بورس</t>
+          <t>بهیر</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>بوعلی</t>
+          <t>بورس</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>بپاس</t>
+          <t>بوعلی</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>بپیوند</t>
+          <t>بپاس</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>بکاب</t>
+          <t>بپیوند</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>بکام</t>
+          <t>بکاب</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>بکهنوج</t>
+          <t>بکام</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>بگیلان</t>
+          <t>بکهنوج</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>تابا</t>
+          <t>بگیلان</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>تاتمس</t>
+          <t>تابا</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>تاراز</t>
+          <t>تاتمس</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>تاصیکو</t>
+          <t>تاراز</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>تامین سپهر</t>
+          <t>تاصیکو</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>تاپکیش</t>
+          <t>تامین سپهر</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>تاپیکو</t>
+          <t>تاپکیش</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>تایرا</t>
+          <t>تاپیکو</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>تبرک</t>
+          <t>تایرا</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>تجلی</t>
+          <t>تبرک</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>تشتاد</t>
+          <t>تجلی</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>تصمیم</t>
+          <t>تشتاد</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>تفارس</t>
+          <t>تصمیم</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>تفیرو</t>
+          <t>تفارس</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>تلیسه</t>
+          <t>تفیرو</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>تماوند</t>
+          <t>تلیسه</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>تمحرکه</t>
+          <t>تماوند</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>تمدن</t>
+          <t>تمحرکه</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>تملت</t>
+          <t>تمدن</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>تنوین</t>
+          <t>تملت</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>توریل</t>
+          <t>تنوین</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>توسعه</t>
+          <t>توریل</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>توسعه نیشکر</t>
+          <t>توسعه</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>توسعه گردشگری</t>
+          <t>توسعه نیشکر</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>توسن</t>
+          <t>توسعه گردشگری</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>تولیددارو</t>
+          <t>توسن</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>تپسی</t>
+          <t>تولیددارو</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>تپمپی</t>
+          <t>تپسی</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>تپولا</t>
+          <t>تپمپی</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>تپکو</t>
+          <t>تپولا</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>تکالا</t>
+          <t>تپکو</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>تکشا</t>
+          <t>تکالا</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>تکمان</t>
+          <t>تکشا</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>تکمبا</t>
+          <t>تکمان</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>تکنار</t>
+          <t>تکمبا</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>تکنو</t>
+          <t>تکنار</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>تیپیکو</t>
+          <t>تکنو</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ثاباد</t>
+          <t>تیپیکو</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ثاخت</t>
+          <t>ثاباد</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ثاصفا</t>
+          <t>ثاخت</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ثالوند</t>
+          <t>ثاصفا</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ثامان</t>
+          <t>ثالوند</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ثامید</t>
+          <t>ثامان</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ثاژن</t>
+          <t>ثامید</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ثبات</t>
+          <t>ثاژن</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ثباغ</t>
+          <t>ثبات</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ثبهساز</t>
+          <t>ثباغ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ثتران</t>
+          <t>ثبهساز</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ثتوسا</t>
+          <t>ثتران</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ثجنوب</t>
+          <t>ثتوسا</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ثجوان</t>
+          <t>ثجنوب</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ثروت</t>
+          <t>ثجوان</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ثروتم</t>
+          <t>ثروت</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ثرود</t>
+          <t>ثروتم</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ثزاگرس</t>
+          <t>ثرود</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ثشاهد</t>
+          <t>ثزاگرس</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ثشرق</t>
+          <t>ثشاهد</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ثعتما</t>
+          <t>ثشرق</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ثعمرا</t>
+          <t>ثعتما</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ثغرب</t>
+          <t>ثعمرا</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ثفارس</t>
+          <t>ثغرب</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ثقزوی</t>
+          <t>ثفارس</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ثمسکن</t>
+          <t>ثقزوی</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ثمین</t>
+          <t>ثمسکن</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ثنام</t>
+          <t>ثمین</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ثنظام</t>
+          <t>ثنام</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ثنور</t>
+          <t>ثنظام</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ثنوسا</t>
+          <t>ثنور</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ثهام</t>
+          <t>ثنوسا</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ثپردیس</t>
+          <t>ثهام</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>جم</t>
+          <t>ثپردیس</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>جم پیلن</t>
+          <t>جم</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>جهرم</t>
+          <t>جم پیلن</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>جوین</t>
+          <t>جهرم</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>حآسا</t>
+          <t>جوین</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>حآفرین</t>
+          <t>حآسا</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>حاریا</t>
+          <t>حآفرین</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>حبندر</t>
+          <t>حاریا</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>حتاید</t>
+          <t>حبندر</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>حتوکا</t>
+          <t>حتاید</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>حخزر</t>
+          <t>حتوکا</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>حرهشا</t>
+          <t>حخزر</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>حریل</t>
+          <t>حرهشا</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>حسیر</t>
+          <t>حریل</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>حسینا</t>
+          <t>حسیر</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>حشکوه</t>
+          <t>حسینا</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>حفارس</t>
+          <t>حشکوه</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>حفاری</t>
+          <t>حفارس</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>حپارسا</t>
+          <t>حفاری</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>حپترو</t>
+          <t>حپارسا</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>حکشتی</t>
+          <t>حپترو</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>حکمت</t>
+          <t>حکشتی</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>حگردش</t>
+          <t>حکمت</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>حگهر</t>
+          <t>حگردش</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>خاتم</t>
+          <t>حگهر</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>خاذین</t>
+          <t>خاتم</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>خاهن</t>
+          <t>خاذین</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>خاور</t>
+          <t>خاهن</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>خاورمیانه</t>
+          <t>خاور</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>خبازرس</t>
+          <t>خاورمیانه</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>خبنیان</t>
+          <t>خبازرس</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>خبهمن</t>
+          <t>خبنیان</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ختراک</t>
+          <t>خبهمن</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ختور</t>
+          <t>ختراک</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ختوقا</t>
+          <t>ختور</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>خدیزل</t>
+          <t>ختوقا</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>خراسان</t>
+          <t>خدیزل</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>خریخت</t>
+          <t>خراسان</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>خرینگ</t>
+          <t>خریخت</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>خزامیا</t>
+          <t>خرینگ</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>خزر</t>
+          <t>خزامیا</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>خساپا</t>
+          <t>خزر</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>خشرق</t>
+          <t>خساپا</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>خصدرا</t>
+          <t>خشرق</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>خعمرا</t>
+          <t>خصدرا</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>خفناور</t>
+          <t>خعمرا</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>خفنر</t>
+          <t>خفناور</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>خفولا</t>
+          <t>خفنر</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>خلنت</t>
+          <t>خفولا</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>خلیبل</t>
+          <t>خلنت</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>خمحرکه</t>
+          <t>خلیبل</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>خمحور</t>
+          <t>خمحرکه</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>خمهر</t>
+          <t>خمحور</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>خموتور</t>
+          <t>خمهر</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>خنصیر</t>
+          <t>خموتور</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>خودرو</t>
+          <t>خنصیر</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>خودکفا</t>
+          <t>خودرو</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>خوساز</t>
+          <t>خودکفا</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>خپارس</t>
+          <t>خوساز</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>خپویش</t>
+          <t>خپارس</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>خچرخش</t>
+          <t>خپویش</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>خکار</t>
+          <t>خچرخش</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>خکاوه</t>
+          <t>خکار</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>خکرمان</t>
+          <t>خکاوه</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>خکمک</t>
+          <t>خکرمان</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>خگستر</t>
+          <t>خکمک</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>دابور</t>
+          <t>خگستر</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>دارا</t>
+          <t>دابور</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>دارا یکم</t>
+          <t>دارا</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>داراب</t>
+          <t>دارا یکم</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>دارو</t>
+          <t>داراب</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>داریوش</t>
+          <t>دارو</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>داریک</t>
+          <t>داریوش</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>داسوه</t>
+          <t>داریک</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>دالبر</t>
+          <t>داسوه</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>دامین</t>
+          <t>دالبر</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>دانا</t>
+          <t>دامین</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>داوه</t>
+          <t>دانا</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>دبالک</t>
+          <t>داوه</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>دتماد</t>
+          <t>دبالک</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>دتهران</t>
+          <t>دتماد</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>دتوزیع</t>
+          <t>دتهران</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>دتولی</t>
+          <t>دتوزیع</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>دتولید</t>
+          <t>دتولی</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>دجابر</t>
+          <t>دتولید</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>دحاوی</t>
+          <t>دجابر</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>دحکیم</t>
+          <t>دحاوی</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ددام</t>
+          <t>دحکیم</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ددانا</t>
+          <t>ددام</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>درازک</t>
+          <t>ددانا</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>درهآور</t>
+          <t>درازک</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>دروز</t>
+          <t>درهآور</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>دزهراوی</t>
+          <t>دروز</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>دسانکو</t>
+          <t>دزهراوی</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>دسبحا</t>
+          <t>دسانکو</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>دسبحان</t>
+          <t>دسبحا</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>دسینا</t>
+          <t>دسبحان</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>دشیری</t>
+          <t>دسینا</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>دشیمی</t>
+          <t>دشیری</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>دعبید</t>
+          <t>دشیمی</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>دفارا</t>
+          <t>دعبید</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>دفرا</t>
+          <t>دفارا</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>دقاضی</t>
+          <t>دفرا</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>دلر</t>
+          <t>دقاضی</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>دلقما</t>
+          <t>دلر</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>دماوند</t>
+          <t>دلقما</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>دهدشت</t>
+          <t>دماوند</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>دپارس</t>
+          <t>دهدشت</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>دکوثر</t>
+          <t>دپارس</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>دکپسول</t>
+          <t>دکوثر</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>دکیمی</t>
+          <t>دکپسول</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>دی</t>
+          <t>دکیمی</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>دیران</t>
+          <t>دی</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ذوب</t>
+          <t>دیران</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>رافزا</t>
+          <t>ذوب</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>رانفور</t>
+          <t>رافزا</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>رتاپ</t>
+          <t>رانفور</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>رتکو</t>
+          <t>رتاپ</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>رشد</t>
+          <t>رتکو</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>رماس</t>
+          <t>رشد</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>رمپنا</t>
+          <t>رماس</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>رنیک</t>
+          <t>رمپنا</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>رویش</t>
+          <t>رنیک</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>رکیش</t>
+          <t>رویش</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ریشمک</t>
+          <t>رکیش</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ریل پرداز</t>
+          <t>ریشمک</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>زاگرس</t>
+          <t>ریل پرداز</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>زبینا</t>
+          <t>زاگرس</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>زدشت</t>
+          <t>زبینا</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>زر</t>
+          <t>زدشت</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>زرین</t>
+          <t>زر</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>زشریف</t>
+          <t>زرین</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>زشگزا</t>
+          <t>زشریف</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>زفکا</t>
+          <t>زشگزا</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>زقیام</t>
+          <t>زفکا</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>زماهان</t>
+          <t>زقیام</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>زملارد</t>
+          <t>زماهان</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>زمگسا</t>
+          <t>زملارد</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>زنجان</t>
+          <t>زمگسا</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>زنگان</t>
+          <t>زنجان</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>زپارس</t>
+          <t>زنگان</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>زکشت</t>
+          <t>زپارس</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>زکوثر</t>
+          <t>زکشت</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>زگلدشت</t>
+          <t>زکوثر</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>زیتون</t>
+          <t>زگلدشت</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>سآبیک</t>
+          <t>زیتون</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ساذری</t>
+          <t>سآبیک</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ساراب</t>
+          <t>ساذری</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ساربیل</t>
+          <t>ساراب</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ساروج</t>
+          <t>ساربیل</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ساروم</t>
+          <t>ساروج</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>سامان</t>
+          <t>ساروم</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ساوه</t>
+          <t>سامان</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>سایرا</t>
+          <t>ساوه</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ساینا</t>
+          <t>سایرا</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>سباقر</t>
+          <t>ساینا</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>سبجنو</t>
+          <t>سباقر</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>سبحان</t>
+          <t>سبجنو</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>سبز</t>
+          <t>سبحان</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>سبزوا</t>
+          <t>سبز</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>سبهان</t>
+          <t>سبزوا</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ستران</t>
+          <t>سبهان</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>سجام</t>
+          <t>ستران</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>سحرخیز</t>
+          <t>سجام</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>سخاش</t>
+          <t>سحرخیز</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>سخزر</t>
+          <t>سخاش</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>سخند</t>
+          <t>سخزر</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>سخواف</t>
+          <t>سخند</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>سخوز</t>
+          <t>سخواف</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>سدبیر</t>
+          <t>سخوز</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>سدشت</t>
+          <t>سدبیر</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>سدور</t>
+          <t>سدشت</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>سرو</t>
+          <t>سدور</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>سرود</t>
+          <t>سرو</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>سرچشمه</t>
+          <t>سرود</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>سشرق</t>
+          <t>سرچشمه</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>سشمال</t>
+          <t>سشرق</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>سصفها</t>
+          <t>سشمال</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>سصوفی</t>
+          <t>سصفها</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>سغدیر</t>
+          <t>سصوفی</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>سغرب</t>
+          <t>سغدیر</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>سفار</t>
+          <t>سغرب</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>سفارس</t>
+          <t>سفار</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>سفارود</t>
+          <t>سفارس</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>سفاسی</t>
+          <t>سفارود</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>سفاسیت</t>
+          <t>سفاسی</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>سفانو</t>
+          <t>سفاسیت</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>سقاین</t>
+          <t>سفانو</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>سلار</t>
+          <t>سقاین</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>سلام</t>
+          <t>سلار</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>سمازن</t>
+          <t>سلام</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>سمایه</t>
+          <t>سمازن</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>سمتاز</t>
+          <t>سمایه</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>سمگا</t>
+          <t>سمتاز</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>سنوین</t>
+          <t>سمگا</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>سنیر</t>
+          <t>سنوین</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>سهرمز</t>
+          <t>سنیر</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>سهگمت</t>
+          <t>سهرمز</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>سپ</t>
+          <t>سهگمت</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>سپاس</t>
+          <t>سپ</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>سپاها</t>
+          <t>سپاس</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>سپر</t>
+          <t>سپاها</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>سپرمی</t>
+          <t>سپر</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>سپید</t>
+          <t>سپرمی</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>سپیدار</t>
+          <t>سپید</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>سپیدما</t>
+          <t>سپیدار</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>سکارون</t>
+          <t>سپیدما</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>سکرد</t>
+          <t>سکارون</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>سکرما</t>
+          <t>سکرد</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>سیتا</t>
+          <t>سکرما</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>سیدکو</t>
+          <t>سیتا</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>سیستم</t>
+          <t>سیدکو</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>سیلام</t>
+          <t>سیستم</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>سیمرغ</t>
+          <t>سیلام</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>سیناد</t>
+          <t>سیمرغ</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>شاراک</t>
+          <t>سیناد</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>شاروم</t>
+          <t>شاراک</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>شاملا</t>
+          <t>شاروم</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>شاوان</t>
+          <t>شاملا</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>شبریز</t>
+          <t>شاوان</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>شبصیر</t>
+          <t>شبریز</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>شبندر</t>
+          <t>شبصیر</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>شبهرن</t>
+          <t>شبندر</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>شتران</t>
+          <t>شبهرن</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>شتهران</t>
+          <t>شتران</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>شتولی</t>
+          <t>شتهران</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>شتوکا</t>
+          <t>شتولی</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>شجم</t>
+          <t>شتوکا</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>شخارک</t>
+          <t>شجم</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>شدوص</t>
+          <t>شخارک</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>شراز</t>
+          <t>شدوص</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>شرانل</t>
+          <t>شراز</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>شرنگی</t>
+          <t>شرانل</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>شزنگ</t>
+          <t>شرنگی</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>شساخت</t>
+          <t>شزنگ</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>شستا</t>
+          <t>شساخت</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>شستان</t>
+          <t>شستا</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>شسم</t>
+          <t>شستان</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>شسپا</t>
+          <t>شسم</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>شسپهر</t>
+          <t>شسپا</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>شسینا</t>
+          <t>شسپهر</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>شصدف</t>
+          <t>شسینا</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>شصفها</t>
+          <t>شصدف</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>شغدیر</t>
+          <t>شصفها</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>شفا</t>
+          <t>شغدیر</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>شفارا</t>
+          <t>شفا</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>شفارس</t>
+          <t>شفارا</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>شفن</t>
+          <t>شفارس</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>شلرد</t>
+          <t>شفن</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>شلعاب</t>
+          <t>شلرد</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>شلیا</t>
+          <t>شلعاب</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>شلیاف</t>
+          <t>شلیا</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>شمواد</t>
+          <t>شلیاف</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>شنفت</t>
+          <t>شمواد</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>شوینده</t>
+          <t>شنفت</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>شپارس</t>
+          <t>شوینده</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>شپاس</t>
+          <t>شپارس</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>شپاکسا</t>
+          <t>شپاس</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>شپترو</t>
+          <t>شپاکسا</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>شپدیس</t>
+          <t>شپترو</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>شپلی</t>
+          <t>شپدیس</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>شپنا</t>
+          <t>شپلی</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>شکام</t>
+          <t>شپنا</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>شکبیر</t>
+          <t>شکام</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>شکربن</t>
+          <t>شکبیر</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>شکف</t>
+          <t>شکربن</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>شکلر</t>
+          <t>شکف</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>شگل</t>
+          <t>شکلر</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>شگویا</t>
+          <t>شگل</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>شیراز</t>
+          <t>شگویا</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>شیران</t>
+          <t>شیراز</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>صایند</t>
+          <t>شیران</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>صبا</t>
+          <t>صایند</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>صغرب</t>
+          <t>صبا</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>صنم</t>
+          <t>صغرب</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>صنوین</t>
+          <t>صنم</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>طلا</t>
+          <t>صنوین</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>عسپاها</t>
+          <t>طلا</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>علامت تبرک</t>
+          <t>عسپاها</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>عمرغ</t>
+          <t>علامت تبرک</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>عمیلگرد</t>
+          <t>عمرغ</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>عپلی جم</t>
+          <t>عمیلگرد</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>عکاوه</t>
+          <t>عپلی جم</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>عیار</t>
+          <t>عکاوه</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>غاذر</t>
+          <t>عیار</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>غالبر</t>
+          <t>غاذر</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>غبشهر</t>
+          <t>غالبر</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>غبهار</t>
+          <t>غبشهر</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>غبهنوش</t>
+          <t>غبهار</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>غبهپاک</t>
+          <t>غبهنوش</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>غدام</t>
+          <t>غبهپاک</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>غدشت</t>
+          <t>غدام</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>غدیس</t>
+          <t>غدشت</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>غزر</t>
+          <t>غدیس</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>غسالم</t>
+          <t>غزر</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>غشاذر</t>
+          <t>غسالم</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>غشان</t>
+          <t>غشاذر</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>غشصفا</t>
+          <t>غشان</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>غشهد</t>
+          <t>غشصفا</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>غشهداب</t>
+          <t>غشهد</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>غشوکو</t>
+          <t>غشهداب</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>غصینو</t>
+          <t>غشوکو</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>غفارس</t>
+          <t>غصینو</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>غمارگ</t>
+          <t>غفارس</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>غمشهد</t>
+          <t>غمارگ</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>غمهرا</t>
+          <t>غمشهد</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>غمینو</t>
+          <t>غمهرا</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>غناب</t>
+          <t>غمینو</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>غنوش</t>
+          <t>غناب</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>غنیلی</t>
+          <t>غنوش</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>غویتا</t>
+          <t>غنیلی</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>غپآذر</t>
+          <t>غویتا</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>غپاک</t>
+          <t>غپآذر</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>غپونه</t>
+          <t>غپاک</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>غپینو</t>
+          <t>غپونه</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>غچین</t>
+          <t>غپینو</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>غکورش</t>
+          <t>غچین</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>غگرجی</t>
+          <t>غکورش</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>غگرگ</t>
+          <t>غگرجی</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>غگز</t>
+          <t>غگرگ</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>غگل</t>
+          <t>غگز</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>غگلستا</t>
+          <t>غگل</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>غگلپا</t>
+          <t>غگلستا</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>غگیلا</t>
+          <t>غگلپا</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>غیوان</t>
+          <t>غگیلا</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>فاذر</t>
+          <t>غیوان</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>فاراک</t>
+          <t>فاذر</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>فارس</t>
+          <t>فاراک</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>فاسمین</t>
+          <t>فارس</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>فافزا</t>
+          <t>فاسمین</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>فافق</t>
+          <t>فافزا</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>فالبر</t>
+          <t>فافق</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>فالوم</t>
+          <t>فالبر</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>فاما</t>
+          <t>فالوم</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>فاهواز</t>
+          <t>فاما</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>فایرا</t>
+          <t>فاهواز</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>فباهنر</t>
+          <t>فایرا</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>فبستم</t>
+          <t>فباهنر</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>فبیرا</t>
+          <t>فبستم</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>فتوسا</t>
+          <t>فبیرا</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>فجام</t>
+          <t>فتوسا</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>فجر</t>
+          <t>فجام</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>فجهان</t>
+          <t>فجر</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>فجوش</t>
+          <t>فجهان</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>فخاس</t>
+          <t>فجوش</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>فخوز</t>
+          <t>فخاس</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>فرآور</t>
+          <t>فخوز</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>فرابورس</t>
+          <t>فرآور</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>فراز</t>
+          <t>فرابورس</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>فردا</t>
+          <t>فراز</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>فروس</t>
+          <t>فردا</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>فروسیل</t>
+          <t>فروس</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>فروم</t>
+          <t>فروسیل</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>فروی</t>
+          <t>فروم</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>فزر</t>
+          <t>فروی</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>فزرین</t>
+          <t>فزر</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>فسا</t>
+          <t>فزرین</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>فسازان</t>
+          <t>فسا</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>فسبزوار</t>
+          <t>فسازان</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>فسدید</t>
+          <t>فسبزوار</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>فسرب</t>
+          <t>فسدید</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>فسپا</t>
+          <t>فسرب</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>فغدیر</t>
+          <t>فسپا</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>فلات</t>
+          <t>فغدیر</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>فلامی</t>
+          <t>فلات</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>فلوله</t>
+          <t>فلامی</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>فماک</t>
+          <t>فلوله</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>فمراد</t>
+          <t>فماک</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>فملی</t>
+          <t>فمراد</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>فن آوا</t>
+          <t>فملی</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>فنرژی</t>
+          <t>فن آوا</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>فنفت</t>
+          <t>فنرژی</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>فنوال</t>
+          <t>فنفت</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>فنورد</t>
+          <t>فنوال</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>فولاد</t>
+          <t>فنورد</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>فولاژ</t>
+          <t>فولاد</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>فولای</t>
+          <t>فولاژ</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>فوکا</t>
+          <t>فولای</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>فپنتا</t>
+          <t>فوکا</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>فکاوه</t>
+          <t>فپنتا</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>فکمند</t>
+          <t>فکاوه</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>فگستر</t>
+          <t>فکمند</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>فیروزا</t>
+          <t>فگستر</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>فیروزه</t>
+          <t>فیروزا</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>قاروم</t>
+          <t>فیروزه</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>قاسم</t>
+          <t>قاروم</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>قتربت</t>
+          <t>قاسم</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>قثابت</t>
+          <t>قتربت</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>قجام</t>
+          <t>قثابت</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>قرن</t>
+          <t>قجام</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>قزوین</t>
+          <t>قرن</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>قشرین</t>
+          <t>قزوین</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>قشهد</t>
+          <t>قشرین</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>قشکر</t>
+          <t>قشهد</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>قشیر</t>
+          <t>قشکر</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>قصفها</t>
+          <t>قشیر</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>قلرست</t>
+          <t>قصفها</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>قمرو</t>
+          <t>قلرست</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>قند یاسوج</t>
+          <t>قمرو</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>قنقش</t>
+          <t>قند یاسوج</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>قنیشا</t>
+          <t>قنقش</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>قهکمت</t>
+          <t>قنیشا</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>قپارس</t>
+          <t>قهکمت</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>قپیرا</t>
+          <t>قپارس</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>قچار</t>
+          <t>قپیرا</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>قیستو</t>
+          <t>قچار</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>لابسا</t>
+          <t>قیستو</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>لازما</t>
+          <t>لابسا</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>لبوتان</t>
+          <t>لازما</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>لخانه</t>
+          <t>لبوتان</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>لخزر</t>
+          <t>لخانه</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>لرادا</t>
+          <t>لخزر</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>لسرما</t>
+          <t>لرادا</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>لطیف</t>
+          <t>لسرما</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>لوتوس</t>
+          <t>لطیف</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>لپارس</t>
+          <t>لوتوس</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>لپیام</t>
+          <t>لپارس</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>لکما</t>
+          <t>لپیام</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ما</t>
+          <t>لکما</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>مادیرا</t>
+          <t>ما</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>مارون</t>
+          <t>مادیرا</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>مانی</t>
+          <t>مارون</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>مبین</t>
+          <t>مانی</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>مثقال</t>
+          <t>مبین</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>مدار</t>
+          <t>مثقال</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>مداران</t>
+          <t>مدار</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>مدیر</t>
+          <t>مداران</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>مدیریت</t>
+          <t>مدیر</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>مرقام</t>
+          <t>مدیریت</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>مروارید</t>
+          <t>مرقام</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>معیار</t>
+          <t>مروارید</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>مفاخر</t>
+          <t>معیار</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ملت</t>
+          <t>مفاخر</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ممسنی</t>
+          <t>ملت</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>موج تامین</t>
+          <t>ممسنی</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>میدکو</t>
+          <t>موج تامین</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>میهن</t>
+          <t>میدکو</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>نارون</t>
+          <t>میهن</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>نبروج</t>
+          <t>نارون</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>نبورس</t>
+          <t>نبروج</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>نتوس</t>
+          <t>نبورس</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>نسیم</t>
+          <t>نتوس</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>نشار</t>
+          <t>نسیم</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>نشان</t>
+          <t>نشار</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>نطرین</t>
+          <t>نشان</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>نمرینو</t>
+          <t>نطرین</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>نهال</t>
+          <t>نمرینو</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>نوری</t>
+          <t>نهال</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>نوین</t>
+          <t>نوری</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>نکالا</t>
+          <t>نوین</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>نگین</t>
+          <t>نکالا</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>نیرو</t>
+          <t>نگین</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>هامرز</t>
+          <t>نیرو</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>های وب</t>
+          <t>هامرز</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>هجرت</t>
+          <t>های وب</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>هرمز</t>
+          <t>هجرت</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>هم وزن</t>
+          <t>هرمز</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>همای</t>
+          <t>هم وزن</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>همراه</t>
+          <t>همای</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>هوایی سامان</t>
+          <t>همراه</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>وآتوس</t>
+          <t>هوایی سامان</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>وآذر</t>
+          <t>وآتوس</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>وآرمان</t>
+          <t>وآذر</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>وآرین</t>
+          <t>وآرمان</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>وآفر</t>
+          <t>وآرین</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>وآفری</t>
+          <t>وآفر</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>وآوا</t>
+          <t>وآفری</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>وآیند</t>
+          <t>وآوا</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>واتی</t>
+          <t>وآیند</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>واحصا</t>
+          <t>واتی</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>واحیا</t>
+          <t>واحصا</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>وارس</t>
+          <t>واحیا</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>واعتبار</t>
+          <t>وارس</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>والبر</t>
+          <t>واعتبار</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>وامید</t>
+          <t>والبر</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>وامیر</t>
+          <t>وامید</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>وامین</t>
+          <t>وامیر</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>وانصار</t>
+          <t>وامین</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>وایرا</t>
+          <t>وانصار</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>وایران</t>
+          <t>وایرا</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>وبازار</t>
+          <t>وایران</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>وبانک</t>
+          <t>وبازار</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>وبرق</t>
+          <t>وبانک</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>وبشهر</t>
+          <t>وبرق</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>وبصادر</t>
+          <t>وبشهر</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>وبملت</t>
+          <t>وبصادر</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>وبهمن</t>
+          <t>وبملت</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>وبوعلی</t>
+          <t>وبهمن</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>وبیمه</t>
+          <t>وبوعلی</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>وتجارت</t>
+          <t>وبیمه</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>وتعاون</t>
+          <t>وتجارت</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>وتوس</t>
+          <t>وتعاون</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>وتوسم</t>
+          <t>وتوس</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>وتوشه</t>
+          <t>وتوسم</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>وتوصا</t>
+          <t>وتوشه</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>وتوکا</t>
+          <t>وتوصا</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>وثخوز</t>
+          <t>وتوکا</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>وثنو</t>
+          <t>وثخوز</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>وثوق</t>
+          <t>وثنو</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>وجامی</t>
+          <t>وثوق</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>وحافظ</t>
+          <t>وجامی</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>وحکمت</t>
+          <t>وحافظ</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>وخارزم</t>
+          <t>وحکمت</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>وخاور</t>
+          <t>وخارزم</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>ودانا</t>
+          <t>وخاور</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ودی</t>
+          <t>ودانا</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ورازی</t>
+          <t>ودی</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>ورنا</t>
+          <t>ورازی</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>وزمین</t>
+          <t>ورنا</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>وساخت</t>
+          <t>وزمین</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>وساربیل</t>
+          <t>وساخت</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>وساشرقی</t>
+          <t>وساربیل</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>وساغربی</t>
+          <t>وساشرقی</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>وسالت</t>
+          <t>وساغربی</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>وساپا</t>
+          <t>وسالت</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>وسبحان</t>
+          <t>وساپا</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>وسبوشهر</t>
+          <t>وسبحان</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>وسخراج</t>
+          <t>وسبوشهر</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>وسخراش</t>
+          <t>وسخراج</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>وسخوز</t>
+          <t>وسخراش</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>وسدید</t>
+          <t>وسخوز</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>وسرضوی</t>
+          <t>وسدید</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>وسرمد</t>
+          <t>وسرضوی</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>وسزنجان</t>
+          <t>وسرمد</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>وسصفا</t>
+          <t>وسزنجان</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>وسفارس</t>
+          <t>وسصفا</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>وسقم</t>
+          <t>وسفارس</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>وسلرستا</t>
+          <t>وسقم</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>وسمازن</t>
+          <t>وسلرستا</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>وسمرکز</t>
+          <t>وسمازن</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>وسنا</t>
+          <t>وسمرکز</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>وسهرمز</t>
+          <t>وسنا</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>وسهمدا</t>
+          <t>وسهرمز</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>وسپه</t>
+          <t>وسهمدا</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>وسپهر</t>
+          <t>وسپه</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>وسکاب</t>
+          <t>وسپهر</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>وسکرد</t>
+          <t>وسکاب</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>وسکرشا</t>
+          <t>وسکرد</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>وسکرمان</t>
+          <t>وسکرشا</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>وسکهبو</t>
+          <t>وسکرمان</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>وسگلستا</t>
+          <t>وسکهبو</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>وسگیلا</t>
+          <t>وسگلستا</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>وسیزد</t>
+          <t>وسگیلا</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>وسیستا</t>
+          <t>وسیزد</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>وسیلام</t>
+          <t>وسیستا</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>وسین</t>
+          <t>وسیلام</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>وسینا</t>
+          <t>وسین</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>وشمال</t>
+          <t>وسینا</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>وشهر</t>
+          <t>وشمال</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>وصنا</t>
+          <t>وشهر</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>وصندوق</t>
+          <t>وصنا</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>وصنعت</t>
+          <t>وصندوق</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>وغدیر</t>
+          <t>وصنعت</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>وفتخار</t>
+          <t>وغدیر</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>وقوام</t>
+          <t>وفتخار</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>ولانا</t>
+          <t>وقوام</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>ولبهمن</t>
+          <t>ولانا</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>ولتجار</t>
+          <t>ولبهمن</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ولراز</t>
+          <t>ولتجار</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ولساپا</t>
+          <t>ولراز</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ولشرق</t>
+          <t>ولساپا</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ولصنم</t>
+          <t>ولشرق</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>ولغدر</t>
+          <t>ولصنم</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>ولقمان</t>
+          <t>ولغدر</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ولملت</t>
+          <t>ولقمان</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>ولپارس</t>
+          <t>ولملت</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>ولکار</t>
+          <t>ولپارس</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>ولیز</t>
+          <t>ولکار</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>ومدیر</t>
+          <t>ولیز</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>ومشان</t>
+          <t>ومدیر</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ومعادن</t>
+          <t>ومشان</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>ومعلم</t>
+          <t>ومعادن</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>وملت</t>
+          <t>ومعلم</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>وملل</t>
+          <t>وملت</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>وملی</t>
+          <t>وملل</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>ومهان</t>
+          <t>وملی</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>ومهر</t>
+          <t>ومهان</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>ونفت</t>
+          <t>ومهر</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>ونوین</t>
+          <t>ونفت</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>ونچر</t>
+          <t>ونوین</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>ونیرو</t>
+          <t>ونچر</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>ونیکی</t>
+          <t>ونیرو</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>وهامون</t>
+          <t>ونیکی</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>وهنر</t>
+          <t>وهامون</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>وهور</t>
+          <t>وهنر</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>وپارس</t>
+          <t>وهور</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>وپاسار</t>
+          <t>وپارس</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>وپترو</t>
+          <t>وپاسار</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>وپخش</t>
+          <t>وپترو</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>وپسا</t>
+          <t>وپخش</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>وپست</t>
+          <t>وپسا</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>وپویا</t>
+          <t>وپست</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>وکادو</t>
+          <t>وپویا</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>وکار</t>
+          <t>وکادو</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>وکبهمن</t>
+          <t>وکار</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>وکغدیر</t>
+          <t>وکبهمن</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>وکوثر</t>
+          <t>وکغدیر</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>وگردش</t>
+          <t>وکوثر</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>وگستر</t>
+          <t>وگردش</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>ویسا</t>
+          <t>وگستر</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>ویستا</t>
+          <t>ویسا</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>پادا</t>
+          <t>ویستا</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>پاداش</t>
+          <t>پادا</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>پارتا</t>
+          <t>پاداش</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>پارس</t>
+          <t>پارتا</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>پارسان</t>
+          <t>پارس</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>پارسیان</t>
+          <t>پارسان</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>پارند</t>
+          <t>پارسیان</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>پاسا</t>
+          <t>پارند</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>پالایش</t>
+          <t>پاسا</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>پاکشو</t>
+          <t>پالایش</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>پتایر</t>
+          <t>پاکشو</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>پترول</t>
+          <t>پتایر</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>پخش</t>
+          <t>پترول</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>پدرخش</t>
+          <t>پخش</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>پرداخت</t>
+          <t>پدرخش</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>پردیس</t>
+          <t>پرداخت</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>پسهند</t>
+          <t>پردیس</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>پشاهن</t>
+          <t>پسهند</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>پقدس</t>
+          <t>پشاهن</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>پلاست</t>
+          <t>پقدس</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>پلاسک</t>
+          <t>پلاست</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>پلوله</t>
+          <t>پلاسک</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>پکرمان</t>
+          <t>پلوله</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>پکویر</t>
+          <t>پکرمان</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>پکیان</t>
+          <t>پکویر</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>پیزد</t>
+          <t>پکیان</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>پیشگام</t>
+          <t>پیزد</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>چافست</t>
+          <t>پیشگام</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>چبسپا</t>
+          <t>چافست</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>چخزر</t>
+          <t>چبسپا</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>چدن</t>
+          <t>چخزر</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>چفیبر</t>
+          <t>چدن</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>چنوپا</t>
+          <t>چفیبر</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>چکارل</t>
+          <t>چنوپا</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>چکارن</t>
+          <t>چکارل</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>چکاوه</t>
+          <t>چکارن</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>چکاپا</t>
+          <t>چکاوه</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>کابگن</t>
+          <t>چکاپا</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>کاذر</t>
+          <t>کابگن</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>کارا</t>
+          <t>کاذر</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>کاردان</t>
+          <t>کارا</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>کاریس</t>
+          <t>کاردان</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>کارین</t>
+          <t>کاریس</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>کازرو</t>
+          <t>کارین</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>کاسپین</t>
+          <t>کازرو</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>کالا</t>
+          <t>کاسپین</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>کالای پتروشیمی</t>
+          <t>کالا</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>کالبر</t>
+          <t>کالای پتروشیمی</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>کاما</t>
+          <t>کالبر</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>کامیاب</t>
+          <t>کاما</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>کاوه</t>
+          <t>کامیاب</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>کایتا</t>
+          <t>کاوه</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>کایزد</t>
+          <t>کایتا</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>کباده</t>
+          <t>کایزد</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>کبافق</t>
+          <t>کباده</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>کبورس</t>
+          <t>کبافق</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>کترام</t>
+          <t>کبورس</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>کتوکا</t>
+          <t>کترام</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>کحافظ</t>
+          <t>کتوکا</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>کخاک</t>
+          <t>کحافظ</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>کدما</t>
+          <t>کخاک</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>کرازی</t>
+          <t>کدما</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>کرماشا</t>
+          <t>کرازی</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>کرمان</t>
+          <t>کرماشا</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>کروی</t>
+          <t>کرمان</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>کزغال</t>
+          <t>کروی</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>کساوه</t>
+          <t>کزغال</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>کساپا</t>
+          <t>کساوه</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>کسرا</t>
+          <t>کساپا</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>کسرام</t>
+          <t>کسرا</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>کسعدی</t>
+          <t>کسرام</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>کشرق</t>
+          <t>کسعدی</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>کصدف</t>
+          <t>کشرق</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>کطبس</t>
+          <t>کصدف</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>کفرآور</t>
+          <t>کطبس</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>کفرا</t>
+          <t>کفرآور</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>کفپارس</t>
+          <t>کفرا</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>کقزوی</t>
+          <t>کفپارس</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>کلر</t>
+          <t>کقزوی</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>کلوند</t>
+          <t>کلر</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>کماسه</t>
+          <t>کلوند</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>کمان</t>
+          <t>کماسه</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>کمرجان</t>
+          <t>کمان</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>کمند</t>
+          <t>کمرجان</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>کمنگنز</t>
+          <t>کمند</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>کمینا</t>
+          <t>کمنگنز</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>کنور</t>
+          <t>کمینا</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>کهرام</t>
+          <t>کنور</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>کهربا</t>
+          <t>کهرام</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>کهمدا</t>
+          <t>کهربا</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>کوثر</t>
+          <t>کهمدا</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>کورز</t>
+          <t>کوثر</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>کویر</t>
+          <t>کورز</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>کپارس</t>
+          <t>کویر</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>کپرور</t>
+          <t>کپارس</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>کپشیر</t>
+          <t>کپرور</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>کچاد</t>
+          <t>کپشیر</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>کگاز</t>
+          <t>کچاد</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>کگل</t>
+          <t>کگاز</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>کگهر</t>
+          <t>کگل</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>کی بی سی</t>
+          <t>کگهر</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>کیا</t>
+          <t>کی بی سی</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>کیان</t>
+          <t>کیا</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>کیسون</t>
+          <t>کیان</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>کیمیا</t>
+          <t>کیسون</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>کیمیاتک</t>
+          <t>کیمیا</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>کیوان</t>
+          <t>کیمیاتک</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>گدنا</t>
+          <t>کیوان</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>گشان</t>
+          <t>گدنا</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>گنبد</t>
+          <t>گشان</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>گنجین</t>
+          <t>گنبد</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>گنجینه</t>
+          <t>گنجین</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>گنگین</t>
+          <t>گنجینه</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>گوهر</t>
+          <t>گنگین</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>گوهران</t>
+          <t>گوهر</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>گپارس</t>
+          <t>گوهران</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>گکوثر</t>
+          <t>گپارس</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>گکیش</t>
+          <t>گکوثر</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>یارا</t>
+          <t>گکیش</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
+        <is>
+          <t>یارا</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
         <is>
           <t>یاقوت</t>
         </is>

--- a/Unique-BaseTickers-TSETMC.xlsx
+++ b/Unique-BaseTickers-TSETMC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/PycharmProjects/Governing-d-Unique-BaseTickers-TSETMC/1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/d-Unique-BaseTickers-TSETMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438C8A3-E251-F24F-844D-FF07AC1A47B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B81B41-1D87-D444-BC2E-4FCBC151A1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="876">
   <si>
     <t>BaseTicker</t>
   </si>
@@ -2648,9 +2648,6 @@
   </si>
   <si>
     <t>یاقوت</t>
-  </si>
-  <si>
-    <t>sth</t>
   </si>
 </sst>
 </file>
@@ -3018,11 +3015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A877"/>
+  <dimension ref="A1:A876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A878" sqref="A878"/>
+      <selection pane="bottomLeft" activeCell="A877" sqref="A877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7410,11 +7407,6 @@
         <v>875</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A877" t="s">
-        <v>876</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
